--- a/Crawl_9_10.xlsx
+++ b/Crawl_9_10.xlsx
@@ -480,9 +480,6 @@
     <t>Community, Digital Repository, Organization, Software</t>
   </si>
   <si>
-    <t>Community, Image Collection, Interchange format</t>
-  </si>
-  <si>
     <t>Community, Image Collection, Organization, Software</t>
   </si>
   <si>
@@ -492,6 +489,9 @@
     <t>Community, Image Collection, Web page</t>
   </si>
   <si>
+    <t>Consensus Effort, Interchange format, Organization, Software</t>
+  </si>
+  <si>
     <t>Consultative  Group on International Agricultural Research</t>
   </si>
   <si>
@@ -1653,7 +1653,7 @@
     <t>['URL Type: http://cinergiterms.weebly.com/url-type.html', ['http://cinergiterms.weebly.com/uploads/7/5/1/1/7511984/bio.jpg, ', 'http://cinergiterms.weebly.com/uploads/7/5/1/1/7511984/hydrobio.jpg, ', 'http://cinergiterms.weebly.com/uploads/7/5/1/1/7511984/bio.jpg, ', 'http://cinergiterms.weebly.com/uploads/7/5/1/1/7511984/hydrobio.jpg, '], ['http://cinergiterms.weebly.com/uploads/7/5/1/1/7511984/activity.jpg, ', 'http://cinergiterms.weebly.com/uploads/7/5/1/1/7511984/activity.jpg, '], 'TLD: http://cinergiterms.weebly.com/top-level-domain.html', 'Country Code: http://cinergiterms.weebly.com/country-codes.html']</t>
   </si>
   <si>
-    <t>['URL Type: http://cinergiterms.weebly.com/url-type.html', ['http://cinergiterms.weebly.com/uploads/7/5/1/1/7511984/clima.jpg, '], ['http://cinergiterms.weebly.com/uploads/7/5/1/1/7511984/community.jpg, ', 'http://cinergiterms.weebly.com/uploads/7/5/1/1/7511984/interformat.jpg, ', 'http://cinergiterms.weebly.com/uploads/7/5/1/1/7511984/community.jpg, ', 'http://cinergiterms.weebly.com/uploads/7/5/1/1/7511984/interformat.jpg, ', 'http://cinergiterms.weebly.com/uploads/7/5/1/1/7511984/community.jpg, ', 'http://cinergiterms.weebly.com/uploads/7/5/1/1/7511984/interformat.jpg, '], 'TLD: http://cinergiterms.weebly.com/top-level-domain.html', 'Country Code: http://cinergiterms.weebly.com/country-codes.html']</t>
+    <t>['URL Type: http://cinergiterms.weebly.com/url-type.html', ['http://cinergiterms.weebly.com/uploads/7/5/1/1/7511984/clima.jpg, '], ['http://cinergiterms.weebly.com/uploads/7/5/1/1/7511984/interformat.jpg, ', 'http://cinergiterms.weebly.com/uploads/7/5/1/1/7511984/software.jpg, ', 'http://cinergiterms.weebly.com/uploads/7/5/1/1/7511984/organization.jpg, ', 'http://cinergiterms.weebly.com/uploads/7/5/1/1/7511984/interformat.jpg, ', 'http://cinergiterms.weebly.com/uploads/7/5/1/1/7511984/software.jpg, ', 'http://cinergiterms.weebly.com/uploads/7/5/1/1/7511984/organization.jpg, ', 'http://cinergiterms.weebly.com/uploads/7/5/1/1/7511984/interformat.jpg, ', 'http://cinergiterms.weebly.com/uploads/7/5/1/1/7511984/software.jpg, ', 'http://cinergiterms.weebly.com/uploads/7/5/1/1/7511984/organization.jpg, ', 'http://cinergiterms.weebly.com/uploads/7/5/1/1/7511984/interformat.jpg, ', 'http://cinergiterms.weebly.com/uploads/7/5/1/1/7511984/software.jpg, ', 'http://cinergiterms.weebly.com/uploads/7/5/1/1/7511984/organization.jpg, '], 'TLD: http://cinergiterms.weebly.com/top-level-domain.html', 'Country Code: http://cinergiterms.weebly.com/country-codes.html']</t>
   </si>
   <si>
     <t>['URL Type: http://cinergiterms.weebly.com/url-type.html', ['http://cinergiterms.weebly.com/uploads/7/5/1/1/7511984/clima.jpg, '], ['http://cinergiterms.weebly.com/uploads/7/5/1/1/7511984/software.jpg, ', 'http://cinergiterms.weebly.com/uploads/7/5/1/1/7511984/software.jpg, '], 'TLD: http://cinergiterms.weebly.com/top-level-domain.html', 'Country Code: http://cinergiterms.weebly.com/country-codes.html']</t>
@@ -2308,4973 +2308,4973 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection sqref="A1" activeCell="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <sheetData>
     <row spans="1:8" r="1">
-      <c t="s" s="1" r="A1">
+      <c r="A1" t="s" s="1">
         <v>488</v>
       </c>
-      <c t="s" s="1" r="B1">
+      <c r="B1" t="s" s="1">
         <v>495</v>
       </c>
-      <c t="s" s="1" r="C1">
+      <c r="C1" t="s" s="1">
         <v>376</v>
       </c>
-      <c t="s" s="1" r="D1">
+      <c r="D1" t="s" s="1">
         <v>487</v>
       </c>
-      <c t="s" s="1" r="E1">
+      <c r="E1" t="s" s="1">
         <v>408</v>
       </c>
-      <c t="s" s="1" r="F1">
+      <c r="F1" t="s" s="1">
         <v>159</v>
       </c>
-      <c t="s" s="1" r="G1">
+      <c r="G1" t="s" s="1">
         <v>456</v>
       </c>
-      <c t="s" s="1" r="H1">
+      <c r="H1" t="s" s="1">
         <v>482</v>
       </c>
     </row>
     <row spans="1:8" r="2">
-      <c t="s" r="A2">
+      <c r="A2" t="s">
         <v>114</v>
       </c>
-      <c t="s" r="B2">
+      <c r="B2" t="s">
         <v>568</v>
       </c>
-      <c t="s" r="C2">
+      <c r="C2" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H2">
+      <c r="H2" t="s">
         <v>560</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" left="0.75" footer="0.5" bottom="1" header="0.5" right="0.75"/>
+  <pageMargins top="1" right="0.75" footer="0.5" left="0.75" bottom="1" header="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection sqref="A1" activeCell="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <sheetData>
     <row spans="1:8" r="1">
-      <c t="s" s="1" r="A1">
+      <c r="A1" t="s" s="1">
         <v>488</v>
       </c>
-      <c t="s" s="1" r="B1">
+      <c r="B1" t="s" s="1">
         <v>495</v>
       </c>
-      <c t="s" s="1" r="C1">
+      <c r="C1" t="s" s="1">
         <v>376</v>
       </c>
-      <c t="s" s="1" r="D1">
+      <c r="D1" t="s" s="1">
         <v>487</v>
       </c>
-      <c t="s" s="1" r="E1">
+      <c r="E1" t="s" s="1">
         <v>408</v>
       </c>
-      <c t="s" s="1" r="F1">
+      <c r="F1" t="s" s="1">
         <v>159</v>
       </c>
-      <c t="s" s="1" r="G1">
+      <c r="G1" t="s" s="1">
         <v>456</v>
       </c>
-      <c t="s" s="1" r="H1">
+      <c r="H1" t="s" s="1">
         <v>482</v>
       </c>
     </row>
     <row spans="1:8" r="2">
-      <c t="s" r="A2">
+      <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c t="s" r="B2">
+      <c r="B2" t="s">
         <v>569</v>
       </c>
-      <c t="s" r="C2">
+      <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c t="s" r="D2">
+      <c r="D2" t="s">
         <v>369</v>
       </c>
-      <c t="s" r="E2">
+      <c r="E2" t="s">
         <v>371</v>
       </c>
-      <c t="s" r="H2">
+      <c r="H2" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="3">
-      <c t="s" r="A3">
+      <c r="A3" t="s">
         <v>156</v>
       </c>
-      <c t="s" r="B3">
+      <c r="B3" t="s">
         <v>570</v>
       </c>
-      <c t="s" r="C3">
+      <c r="C3" t="s">
         <v>156</v>
       </c>
-      <c t="s" r="D3">
+      <c r="D3" t="s">
         <v>369</v>
       </c>
-      <c t="s" r="E3">
+      <c r="E3" t="s">
         <v>371</v>
       </c>
-      <c t="s" r="H3">
+      <c r="H3" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="4">
-      <c t="s" r="A4">
+      <c r="A4" t="s">
         <v>112</v>
       </c>
-      <c t="s" r="B4">
+      <c r="B4" t="s">
         <v>571</v>
       </c>
-      <c t="s" r="C4">
+      <c r="C4" t="s">
         <v>112</v>
       </c>
-      <c t="s" r="D4">
+      <c r="D4" t="s">
         <v>369</v>
       </c>
-      <c t="s" r="E4">
+      <c r="E4" t="s">
         <v>462</v>
       </c>
-      <c t="s" r="H4">
+      <c r="H4" t="s">
         <v>557</v>
       </c>
     </row>
     <row spans="1:8" r="5">
-      <c t="s" r="A5">
+      <c r="A5" t="s">
         <v>113</v>
       </c>
-      <c t="s" r="B5">
+      <c r="B5" t="s">
         <v>576</v>
       </c>
-      <c t="s" r="C5">
+      <c r="C5" t="s">
         <v>113</v>
       </c>
-      <c t="s" r="D5">
+      <c r="D5" t="s">
         <v>369</v>
       </c>
-      <c t="s" r="E5">
+      <c r="E5" t="s">
         <v>135</v>
       </c>
-      <c t="s" r="H5">
+      <c r="H5" t="s">
         <v>550</v>
       </c>
     </row>
     <row spans="1:8" r="6">
-      <c t="s" r="A6">
+      <c r="A6" t="s">
         <v>523</v>
       </c>
-      <c t="s" r="B6">
+      <c r="B6" t="s">
         <v>583</v>
       </c>
-      <c t="s" r="C6">
+      <c r="C6" t="s">
         <v>523</v>
       </c>
-      <c t="s" r="D6">
+      <c r="D6" t="s">
         <v>369</v>
       </c>
-      <c t="s" r="E6">
+      <c r="E6" t="s">
         <v>371</v>
       </c>
-      <c t="s" r="G6">
+      <c r="G6" t="s">
         <v>199</v>
       </c>
-      <c t="s" r="H6">
+      <c r="H6" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="7">
-      <c t="s" r="A7">
+      <c r="A7" t="s">
         <v>231</v>
       </c>
-      <c t="s" r="B7">
+      <c r="B7" t="s">
         <v>590</v>
       </c>
-      <c t="s" r="C7">
+      <c r="C7" t="s">
         <v>231</v>
       </c>
-      <c t="s" r="D7">
+      <c r="D7" t="s">
         <v>369</v>
       </c>
-      <c t="s" r="E7">
+      <c r="E7" t="s">
         <v>371</v>
       </c>
-      <c t="s" r="H7">
+      <c r="H7" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="8">
-      <c t="s" r="A8">
+      <c r="A8" t="s">
         <v>202</v>
       </c>
-      <c t="s" r="B8">
+      <c r="B8" t="s">
         <v>613</v>
       </c>
-      <c t="s" r="C8">
+      <c r="C8" t="s">
         <v>202</v>
       </c>
-      <c t="s" r="D8">
+      <c r="D8" t="s">
         <v>369</v>
       </c>
-      <c t="s" r="E8">
+      <c r="E8" t="s">
         <v>144</v>
       </c>
-      <c t="s" r="H8">
+      <c r="H8" t="s">
         <v>556</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" left="0.75" footer="0.5" bottom="1" header="0.5" right="0.75"/>
+  <pageMargins top="1" right="0.75" footer="0.5" left="0.75" bottom="1" header="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
   <dimension ref="A1:H144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection sqref="A1" activeCell="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <sheetData>
     <row spans="1:8" r="1">
-      <c t="s" s="1" r="A1">
+      <c r="A1" t="s" s="1">
         <v>488</v>
       </c>
-      <c t="s" s="1" r="B1">
+      <c r="B1" t="s" s="1">
         <v>495</v>
       </c>
-      <c t="s" s="1" r="C1">
+      <c r="C1" t="s" s="1">
         <v>376</v>
       </c>
-      <c t="s" s="1" r="D1">
+      <c r="D1" t="s" s="1">
         <v>487</v>
       </c>
-      <c t="s" s="1" r="E1">
+      <c r="E1" t="s" s="1">
         <v>408</v>
       </c>
-      <c t="s" s="1" r="F1">
+      <c r="F1" t="s" s="1">
         <v>159</v>
       </c>
-      <c t="s" s="1" r="G1">
+      <c r="G1" t="s" s="1">
         <v>456</v>
       </c>
-      <c t="s" s="1" r="H1">
+      <c r="H1" t="s" s="1">
         <v>482</v>
       </c>
     </row>
     <row spans="1:8" r="2">
-      <c t="s" r="A2">
-        <v>370</v>
-      </c>
-      <c t="s" r="B2">
+      <c r="A2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B2" t="s">
         <v>568</v>
       </c>
-      <c t="s" r="C2">
+      <c r="C2" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H2">
+      <c r="H2" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="3">
-      <c t="s" r="A3">
-        <v>370</v>
-      </c>
-      <c t="s" r="B3">
+      <c r="A3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B3" t="s">
         <v>572</v>
       </c>
-      <c t="s" r="C3">
+      <c r="C3" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H3">
+      <c r="H3" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="4">
-      <c t="s" r="A4">
-        <v>370</v>
-      </c>
-      <c t="s" r="B4">
+      <c r="A4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B4" t="s">
         <v>573</v>
       </c>
-      <c t="s" r="C4">
+      <c r="C4" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H4">
+      <c r="H4" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="5">
-      <c t="s" r="A5">
-        <v>370</v>
-      </c>
-      <c t="s" r="B5">
+      <c r="A5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B5" t="s">
         <v>574</v>
       </c>
-      <c t="s" r="C5">
+      <c r="C5" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H5">
+      <c r="H5" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="6">
-      <c t="s" r="A6">
-        <v>370</v>
-      </c>
-      <c t="s" r="B6">
+      <c r="A6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B6" t="s">
         <v>575</v>
       </c>
-      <c t="s" r="C6">
+      <c r="C6" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H6">
+      <c r="H6" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="7">
-      <c t="s" r="A7">
-        <v>370</v>
-      </c>
-      <c t="s" r="B7">
+      <c r="A7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B7" t="s">
         <v>566</v>
       </c>
-      <c t="s" r="C7">
+      <c r="C7" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H7">
+      <c r="H7" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="8">
-      <c t="s" r="A8">
-        <v>370</v>
-      </c>
-      <c t="s" r="B8">
+      <c r="A8" t="s">
+        <v>370</v>
+      </c>
+      <c r="B8" t="s">
         <v>580</v>
       </c>
-      <c t="s" r="C8">
+      <c r="C8" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H8">
+      <c r="H8" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="9">
-      <c t="s" r="A9">
-        <v>370</v>
-      </c>
-      <c t="s" r="B9">
+      <c r="A9" t="s">
+        <v>370</v>
+      </c>
+      <c r="B9" t="s">
         <v>577</v>
       </c>
-      <c t="s" r="C9">
+      <c r="C9" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H9">
+      <c r="H9" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="10">
-      <c t="s" r="A10">
-        <v>370</v>
-      </c>
-      <c t="s" r="B10">
+      <c r="A10" t="s">
+        <v>370</v>
+      </c>
+      <c r="B10" t="s">
         <v>578</v>
       </c>
-      <c t="s" r="C10">
+      <c r="C10" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H10">
+      <c r="H10" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="11">
-      <c t="s" r="A11">
-        <v>370</v>
-      </c>
-      <c t="s" r="B11">
+      <c r="A11" t="s">
+        <v>370</v>
+      </c>
+      <c r="B11" t="s">
         <v>579</v>
       </c>
-      <c t="s" r="C11">
+      <c r="C11" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H11">
+      <c r="H11" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="12">
-      <c t="s" r="A12">
-        <v>370</v>
-      </c>
-      <c t="s" r="B12">
+      <c r="A12" t="s">
+        <v>370</v>
+      </c>
+      <c r="B12" t="s">
         <v>610</v>
       </c>
-      <c t="s" r="C12">
+      <c r="C12" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H12">
+      <c r="H12" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="13">
-      <c t="s" r="A13">
-        <v>370</v>
-      </c>
-      <c t="s" r="B13">
+      <c r="A13" t="s">
+        <v>370</v>
+      </c>
+      <c r="B13" t="s">
         <v>638</v>
       </c>
-      <c t="s" r="C13">
+      <c r="C13" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H13">
+      <c r="H13" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="14">
-      <c t="s" r="A14">
-        <v>370</v>
-      </c>
-      <c t="s" r="B14">
+      <c r="A14" t="s">
+        <v>370</v>
+      </c>
+      <c r="B14" t="s">
         <v>609</v>
       </c>
-      <c t="s" r="C14">
+      <c r="C14" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H14">
+      <c r="H14" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="15">
-      <c t="s" r="A15">
-        <v>370</v>
-      </c>
-      <c t="s" r="B15">
+      <c r="A15" t="s">
+        <v>370</v>
+      </c>
+      <c r="B15" t="s">
         <v>589</v>
       </c>
-      <c t="s" r="C15">
+      <c r="C15" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H15">
+      <c r="H15" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="16">
-      <c t="s" r="A16">
-        <v>370</v>
-      </c>
-      <c t="s" r="B16">
+      <c r="A16" t="s">
+        <v>370</v>
+      </c>
+      <c r="B16" t="s">
         <v>584</v>
       </c>
-      <c t="s" r="C16">
+      <c r="C16" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H16">
+      <c r="H16" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="17">
-      <c t="s" r="A17">
-        <v>370</v>
-      </c>
-      <c t="s" r="B17">
+      <c r="A17" t="s">
+        <v>370</v>
+      </c>
+      <c r="B17" t="s">
         <v>587</v>
       </c>
-      <c t="s" r="C17">
+      <c r="C17" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H17">
+      <c r="H17" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="18">
-      <c t="s" r="A18">
-        <v>370</v>
-      </c>
-      <c t="s" r="B18">
+      <c r="A18" t="s">
+        <v>370</v>
+      </c>
+      <c r="B18" t="s">
         <v>585</v>
       </c>
-      <c t="s" r="C18">
+      <c r="C18" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H18">
+      <c r="H18" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="19">
-      <c t="s" r="A19">
-        <v>370</v>
-      </c>
-      <c t="s" r="B19">
+      <c r="A19" t="s">
+        <v>370</v>
+      </c>
+      <c r="B19" t="s">
         <v>586</v>
       </c>
-      <c t="s" r="C19">
+      <c r="C19" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H19">
+      <c r="H19" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="20">
-      <c t="s" r="A20">
-        <v>370</v>
-      </c>
-      <c t="s" r="B20">
+      <c r="A20" t="s">
+        <v>370</v>
+      </c>
+      <c r="B20" t="s">
         <v>588</v>
       </c>
-      <c t="s" r="C20">
+      <c r="C20" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H20">
+      <c r="H20" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="21">
-      <c t="s" r="A21">
-        <v>370</v>
-      </c>
-      <c t="s" r="B21">
+      <c r="A21" t="s">
+        <v>370</v>
+      </c>
+      <c r="B21" t="s">
         <v>607</v>
       </c>
-      <c t="s" r="C21">
+      <c r="C21" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H21">
+      <c r="H21" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="22">
-      <c t="s" r="A22">
-        <v>370</v>
-      </c>
-      <c t="s" r="B22">
+      <c r="A22" t="s">
+        <v>370</v>
+      </c>
+      <c r="B22" t="s">
         <v>602</v>
       </c>
-      <c t="s" r="C22">
+      <c r="C22" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H22">
+      <c r="H22" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="23">
-      <c t="s" r="A23">
-        <v>370</v>
-      </c>
-      <c t="s" r="B23">
+      <c r="A23" t="s">
+        <v>370</v>
+      </c>
+      <c r="B23" t="s">
         <v>636</v>
       </c>
-      <c t="s" r="C23">
+      <c r="C23" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H23">
+      <c r="H23" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="24">
-      <c t="s" r="A24">
-        <v>370</v>
-      </c>
-      <c t="s" r="B24">
+      <c r="A24" t="s">
+        <v>370</v>
+      </c>
+      <c r="B24" t="s">
         <v>603</v>
       </c>
-      <c t="s" r="C24">
+      <c r="C24" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H24">
+      <c r="H24" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="25">
-      <c t="s" r="A25">
-        <v>370</v>
-      </c>
-      <c t="s" r="B25">
+      <c r="A25" t="s">
+        <v>370</v>
+      </c>
+      <c r="B25" t="s">
         <v>608</v>
       </c>
-      <c t="s" r="C25">
+      <c r="C25" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H25">
+      <c r="H25" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="26">
-      <c t="s" r="A26">
-        <v>370</v>
-      </c>
-      <c t="s" r="B26">
+      <c r="A26" t="s">
+        <v>370</v>
+      </c>
+      <c r="B26" t="s">
         <v>606</v>
       </c>
-      <c t="s" r="C26">
+      <c r="C26" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H26">
+      <c r="H26" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="27">
-      <c t="s" r="A27">
-        <v>370</v>
-      </c>
-      <c t="s" r="B27">
+      <c r="A27" t="s">
+        <v>370</v>
+      </c>
+      <c r="B27" t="s">
         <v>596</v>
       </c>
-      <c t="s" r="C27">
+      <c r="C27" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H27">
+      <c r="H27" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="28">
-      <c t="s" r="A28">
-        <v>370</v>
-      </c>
-      <c t="s" r="B28">
+      <c r="A28" t="s">
+        <v>370</v>
+      </c>
+      <c r="B28" t="s">
         <v>639</v>
       </c>
-      <c t="s" r="C28">
+      <c r="C28" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H28">
+      <c r="H28" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="29">
-      <c t="s" r="A29">
-        <v>370</v>
-      </c>
-      <c t="s" r="B29">
+      <c r="A29" t="s">
+        <v>370</v>
+      </c>
+      <c r="B29" t="s">
         <v>592</v>
       </c>
-      <c t="s" r="C29">
+      <c r="C29" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H29">
+      <c r="H29" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="30">
-      <c t="s" r="A30">
-        <v>370</v>
-      </c>
-      <c t="s" r="B30">
+      <c r="A30" t="s">
+        <v>370</v>
+      </c>
+      <c r="B30" t="s">
         <v>591</v>
       </c>
-      <c t="s" r="C30">
+      <c r="C30" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H30">
+      <c r="H30" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="31">
-      <c t="s" r="A31">
-        <v>370</v>
-      </c>
-      <c t="s" r="B31">
+      <c r="A31" t="s">
+        <v>370</v>
+      </c>
+      <c r="B31" t="s">
         <v>594</v>
       </c>
-      <c t="s" r="C31">
+      <c r="C31" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H31">
+      <c r="H31" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="32">
-      <c t="s" r="A32">
-        <v>370</v>
-      </c>
-      <c t="s" r="B32">
+      <c r="A32" t="s">
+        <v>370</v>
+      </c>
+      <c r="B32" t="s">
         <v>597</v>
       </c>
-      <c t="s" r="C32">
+      <c r="C32" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H32">
+      <c r="H32" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="33">
-      <c t="s" r="A33">
-        <v>370</v>
-      </c>
-      <c t="s" r="B33">
+      <c r="A33" t="s">
+        <v>370</v>
+      </c>
+      <c r="B33" t="s">
         <v>593</v>
       </c>
-      <c t="s" r="C33">
+      <c r="C33" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H33">
+      <c r="H33" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="34">
-      <c t="s" r="A34">
-        <v>370</v>
-      </c>
-      <c t="s" r="B34">
+      <c r="A34" t="s">
+        <v>370</v>
+      </c>
+      <c r="B34" t="s">
         <v>595</v>
       </c>
-      <c t="s" r="C34">
+      <c r="C34" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H34">
+      <c r="H34" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="35">
-      <c t="s" r="A35">
-        <v>370</v>
-      </c>
-      <c t="s" r="B35">
+      <c r="A35" t="s">
+        <v>370</v>
+      </c>
+      <c r="B35" t="s">
         <v>612</v>
       </c>
-      <c t="s" r="C35">
+      <c r="C35" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H35">
+      <c r="H35" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="36">
-      <c t="s" r="A36">
-        <v>370</v>
-      </c>
-      <c t="s" r="B36">
+      <c r="A36" t="s">
+        <v>370</v>
+      </c>
+      <c r="B36" t="s">
         <v>618</v>
       </c>
-      <c t="s" r="C36">
+      <c r="C36" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H36">
+      <c r="H36" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="37">
-      <c t="s" r="A37">
-        <v>370</v>
-      </c>
-      <c t="s" r="B37">
+      <c r="A37" t="s">
+        <v>370</v>
+      </c>
+      <c r="B37" t="s">
         <v>567</v>
       </c>
-      <c t="s" r="C37">
+      <c r="C37" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H37">
+      <c r="H37" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="38">
-      <c t="s" r="A38">
-        <v>370</v>
-      </c>
-      <c t="s" r="B38">
+      <c r="A38" t="s">
+        <v>370</v>
+      </c>
+      <c r="B38" t="s">
         <v>616</v>
       </c>
-      <c t="s" r="C38">
+      <c r="C38" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H38">
+      <c r="H38" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="39">
-      <c t="s" r="A39">
-        <v>370</v>
-      </c>
-      <c t="s" r="B39">
+      <c r="A39" t="s">
+        <v>370</v>
+      </c>
+      <c r="B39" t="s">
         <v>617</v>
       </c>
-      <c t="s" r="C39">
+      <c r="C39" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H39">
+      <c r="H39" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="40">
-      <c t="s" r="A40">
-        <v>370</v>
-      </c>
-      <c t="s" r="B40">
+      <c r="A40" t="s">
+        <v>370</v>
+      </c>
+      <c r="B40" t="s">
         <v>621</v>
       </c>
-      <c t="s" r="C40">
+      <c r="C40" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H40">
+      <c r="H40" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="41">
-      <c t="s" r="A41">
-        <v>370</v>
-      </c>
-      <c t="s" r="B41">
+      <c r="A41" t="s">
+        <v>370</v>
+      </c>
+      <c r="B41" t="s">
         <v>622</v>
       </c>
-      <c t="s" r="C41">
+      <c r="C41" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H41">
+      <c r="H41" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="42">
-      <c t="s" r="A42">
-        <v>370</v>
-      </c>
-      <c t="s" r="B42">
+      <c r="A42" t="s">
+        <v>370</v>
+      </c>
+      <c r="B42" t="s">
         <v>600</v>
       </c>
-      <c t="s" r="C42">
+      <c r="C42" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H42">
+      <c r="H42" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="43">
-      <c t="s" r="A43">
-        <v>370</v>
-      </c>
-      <c t="s" r="B43">
+      <c r="A43" t="s">
+        <v>370</v>
+      </c>
+      <c r="B43" t="s">
         <v>581</v>
       </c>
-      <c t="s" r="C43">
+      <c r="C43" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H43">
+      <c r="H43" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="44">
-      <c t="s" r="A44">
-        <v>370</v>
-      </c>
-      <c t="s" r="B44">
+      <c r="A44" t="s">
+        <v>370</v>
+      </c>
+      <c r="B44" t="s">
         <v>598</v>
       </c>
-      <c t="s" r="C44">
+      <c r="C44" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H44">
+      <c r="H44" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="45">
-      <c t="s" r="A45">
-        <v>370</v>
-      </c>
-      <c t="s" r="B45">
+      <c r="A45" t="s">
+        <v>370</v>
+      </c>
+      <c r="B45" t="s">
         <v>604</v>
       </c>
-      <c t="s" r="C45">
+      <c r="C45" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H45">
+      <c r="H45" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="46">
-      <c t="s" r="A46">
-        <v>370</v>
-      </c>
-      <c t="s" r="B46">
+      <c r="A46" t="s">
+        <v>370</v>
+      </c>
+      <c r="B46" t="s">
         <v>565</v>
       </c>
-      <c t="s" r="C46">
+      <c r="C46" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H46">
+      <c r="H46" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="47">
-      <c t="s" r="A47">
-        <v>370</v>
-      </c>
-      <c t="s" r="B47">
+      <c r="A47" t="s">
+        <v>370</v>
+      </c>
+      <c r="B47" t="s">
         <v>582</v>
       </c>
-      <c t="s" r="C47">
+      <c r="C47" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H47">
+      <c r="H47" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="48">
-      <c t="s" r="A48">
-        <v>370</v>
-      </c>
-      <c t="s" r="B48">
+      <c r="A48" t="s">
+        <v>370</v>
+      </c>
+      <c r="B48" t="s">
         <v>635</v>
       </c>
-      <c t="s" r="C48">
+      <c r="C48" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H48">
+      <c r="H48" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="49">
-      <c t="s" r="A49">
-        <v>370</v>
-      </c>
-      <c t="s" r="B49">
+      <c r="A49" t="s">
+        <v>370</v>
+      </c>
+      <c r="B49" t="s">
         <v>623</v>
       </c>
-      <c t="s" r="C49">
+      <c r="C49" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H49">
+      <c r="H49" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="50">
-      <c t="s" r="A50">
-        <v>370</v>
-      </c>
-      <c t="s" r="B50">
+      <c r="A50" t="s">
+        <v>370</v>
+      </c>
+      <c r="B50" t="s">
         <v>605</v>
       </c>
-      <c t="s" r="C50">
+      <c r="C50" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H50">
+      <c r="H50" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="51">
-      <c t="s" r="A51">
-        <v>370</v>
-      </c>
-      <c t="s" r="B51">
+      <c r="A51" t="s">
+        <v>370</v>
+      </c>
+      <c r="B51" t="s">
         <v>611</v>
       </c>
-      <c t="s" r="C51">
+      <c r="C51" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H51">
+      <c r="H51" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="52">
-      <c t="s" r="A52">
-        <v>370</v>
-      </c>
-      <c t="s" r="B52">
+      <c r="A52" t="s">
+        <v>370</v>
+      </c>
+      <c r="B52" t="s">
         <v>637</v>
       </c>
-      <c t="s" r="C52">
+      <c r="C52" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H52">
+      <c r="H52" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="53">
-      <c t="s" r="A53">
-        <v>370</v>
-      </c>
-      <c t="s" r="B53">
+      <c r="A53" t="s">
+        <v>370</v>
+      </c>
+      <c r="B53" t="s">
         <v>601</v>
       </c>
-      <c t="s" r="C53">
+      <c r="C53" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H53">
+      <c r="H53" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="54">
-      <c t="s" r="A54">
-        <v>370</v>
-      </c>
-      <c t="s" r="B54">
+      <c r="A54" t="s">
+        <v>370</v>
+      </c>
+      <c r="B54" t="s">
         <v>626</v>
       </c>
-      <c t="s" r="C54">
+      <c r="C54" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H54">
+      <c r="H54" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="55">
-      <c t="s" r="A55">
-        <v>370</v>
-      </c>
-      <c t="s" r="B55">
+      <c r="A55" t="s">
+        <v>370</v>
+      </c>
+      <c r="B55" t="s">
         <v>625</v>
       </c>
-      <c t="s" r="C55">
+      <c r="C55" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H55">
+      <c r="H55" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="56">
-      <c t="s" r="A56">
-        <v>370</v>
-      </c>
-      <c t="s" r="B56">
+      <c r="A56" t="s">
+        <v>370</v>
+      </c>
+      <c r="B56" t="s">
         <v>627</v>
       </c>
-      <c t="s" r="C56">
+      <c r="C56" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H56">
+      <c r="H56" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="57">
-      <c t="s" r="A57">
-        <v>370</v>
-      </c>
-      <c t="s" r="B57">
+      <c r="A57" t="s">
+        <v>370</v>
+      </c>
+      <c r="B57" t="s">
         <v>624</v>
       </c>
-      <c t="s" r="C57">
+      <c r="C57" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H57">
+      <c r="H57" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="58">
-      <c t="s" r="A58">
-        <v>370</v>
-      </c>
-      <c t="s" r="B58">
+      <c r="A58" t="s">
+        <v>370</v>
+      </c>
+      <c r="B58" t="s">
         <v>631</v>
       </c>
-      <c t="s" r="C58">
+      <c r="C58" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H58">
+      <c r="H58" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="59">
-      <c t="s" r="A59">
-        <v>370</v>
-      </c>
-      <c t="s" r="B59">
+      <c r="A59" t="s">
+        <v>370</v>
+      </c>
+      <c r="B59" t="s">
         <v>629</v>
       </c>
-      <c t="s" r="C59">
+      <c r="C59" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H59">
+      <c r="H59" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="60">
-      <c t="s" r="A60">
-        <v>370</v>
-      </c>
-      <c t="s" r="B60">
+      <c r="A60" t="s">
+        <v>370</v>
+      </c>
+      <c r="B60" t="s">
         <v>634</v>
       </c>
-      <c t="s" r="C60">
+      <c r="C60" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H60">
+      <c r="H60" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="61">
-      <c t="s" r="A61">
-        <v>370</v>
-      </c>
-      <c t="s" r="B61">
+      <c r="A61" t="s">
+        <v>370</v>
+      </c>
+      <c r="B61" t="s">
         <v>628</v>
       </c>
-      <c t="s" r="C61">
+      <c r="C61" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H61">
+      <c r="H61" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="62">
-      <c t="s" r="A62">
-        <v>370</v>
-      </c>
-      <c t="s" r="B62">
+      <c r="A62" t="s">
+        <v>370</v>
+      </c>
+      <c r="B62" t="s">
         <v>633</v>
       </c>
-      <c t="s" r="C62">
+      <c r="C62" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H62">
+      <c r="H62" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="63">
-      <c t="s" r="A63">
-        <v>370</v>
-      </c>
-      <c t="s" r="B63">
+      <c r="A63" t="s">
+        <v>370</v>
+      </c>
+      <c r="B63" t="s">
         <v>632</v>
       </c>
-      <c t="s" r="C63">
+      <c r="C63" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H63">
+      <c r="H63" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="64">
-      <c t="s" r="A64">
-        <v>370</v>
-      </c>
-      <c t="s" r="B64">
+      <c r="A64" t="s">
+        <v>370</v>
+      </c>
+      <c r="B64" t="s">
         <v>630</v>
       </c>
-      <c t="s" r="C64">
+      <c r="C64" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H64">
+      <c r="H64" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="65">
-      <c t="s" r="A65">
-        <v>370</v>
-      </c>
-      <c t="s" r="B65">
+      <c r="A65" t="s">
+        <v>370</v>
+      </c>
+      <c r="B65" t="s">
         <v>599</v>
       </c>
-      <c t="s" r="C65">
+      <c r="C65" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H65">
+      <c r="H65" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="66">
-      <c t="s" r="A66">
-        <v>370</v>
-      </c>
-      <c t="s" r="B66">
+      <c r="A66" t="s">
+        <v>370</v>
+      </c>
+      <c r="B66" t="s">
         <v>564</v>
       </c>
-      <c t="s" r="C66">
+      <c r="C66" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H66">
+      <c r="H66" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="67">
-      <c t="s" r="A67">
-        <v>370</v>
-      </c>
-      <c t="s" r="B67">
+      <c r="A67" t="s">
+        <v>370</v>
+      </c>
+      <c r="B67" t="s">
         <v>563</v>
       </c>
-      <c t="s" r="C67">
+      <c r="C67" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H67">
+      <c r="H67" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="68">
-      <c t="s" r="A68">
-        <v>370</v>
-      </c>
-      <c t="s" r="B68">
+      <c r="A68" t="s">
+        <v>370</v>
+      </c>
+      <c r="B68" t="s">
         <v>562</v>
       </c>
-      <c t="s" r="C68">
+      <c r="C68" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H68">
+      <c r="H68" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="69">
-      <c t="s" r="A69">
-        <v>370</v>
-      </c>
-      <c t="s" r="B69">
+      <c r="A69" t="s">
+        <v>370</v>
+      </c>
+      <c r="B69" t="s">
         <v>561</v>
       </c>
-      <c t="s" r="C69">
+      <c r="C69" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H69">
+      <c r="H69" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="70">
-      <c t="s" r="A70">
-        <v>370</v>
-      </c>
-      <c t="s" r="B70">
+      <c r="A70" t="s">
+        <v>370</v>
+      </c>
+      <c r="B70" t="s">
         <v>615</v>
       </c>
-      <c t="s" r="C70">
+      <c r="C70" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H70">
+      <c r="H70" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="71">
-      <c t="s" r="A71">
-        <v>370</v>
-      </c>
-      <c t="s" r="B71">
+      <c r="A71" t="s">
+        <v>370</v>
+      </c>
+      <c r="B71" t="s">
         <v>619</v>
       </c>
-      <c t="s" r="C71">
+      <c r="C71" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H71">
+      <c r="H71" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="72">
-      <c t="s" r="A72">
-        <v>370</v>
-      </c>
-      <c t="s" r="B72">
+      <c r="A72" t="s">
+        <v>370</v>
+      </c>
+      <c r="B72" t="s">
         <v>620</v>
       </c>
-      <c t="s" r="C72">
+      <c r="C72" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H72">
+      <c r="H72" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="73">
-      <c t="s" r="A73">
-        <v>370</v>
-      </c>
-      <c t="s" r="B73">
+      <c r="A73" t="s">
+        <v>370</v>
+      </c>
+      <c r="B73" t="s">
         <v>614</v>
       </c>
-      <c t="s" r="C73">
+      <c r="C73" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="H73">
+      <c r="H73" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="74">
-      <c t="s" r="A74">
+      <c r="A74" t="s">
         <v>154</v>
       </c>
-      <c t="s" r="B74">
+      <c r="B74" t="s">
         <v>574</v>
       </c>
-      <c t="s" r="C74">
+      <c r="C74" t="s">
         <v>154</v>
       </c>
-      <c t="s" r="D74">
+      <c r="D74" t="s">
         <v>369</v>
       </c>
-      <c t="s" r="E74">
+      <c r="E74" t="s">
         <v>371</v>
       </c>
-      <c t="s" r="H74">
+      <c r="H74" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="75">
-      <c t="s" r="A75">
+      <c r="A75" t="s">
         <v>112</v>
       </c>
-      <c t="s" r="B75">
+      <c r="B75" t="s">
         <v>572</v>
       </c>
-      <c t="s" r="C75">
+      <c r="C75" t="s">
         <v>112</v>
       </c>
-      <c t="s" r="D75">
+      <c r="D75" t="s">
         <v>369</v>
       </c>
-      <c t="s" r="E75">
+      <c r="E75" t="s">
         <v>462</v>
       </c>
-      <c t="s" r="H75">
+      <c r="H75" t="s">
         <v>557</v>
       </c>
     </row>
     <row spans="1:8" r="76">
-      <c t="s" r="A76">
+      <c r="A76" t="s">
         <v>23</v>
       </c>
-      <c t="s" r="B76">
+      <c r="B76" t="s">
         <v>573</v>
       </c>
-      <c t="s" r="C76">
+      <c r="C76" t="s">
         <v>23</v>
       </c>
-      <c t="s" r="D76">
+      <c r="D76" t="s">
         <v>369</v>
       </c>
-      <c t="s" r="E76">
+      <c r="E76" t="s">
         <v>371</v>
       </c>
-      <c t="s" r="H76">
+      <c r="H76" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="77">
-      <c t="s" r="A77">
+      <c r="A77" t="s">
         <v>113</v>
       </c>
-      <c t="s" r="B77">
+      <c r="B77" t="s">
         <v>577</v>
       </c>
-      <c t="s" r="C77">
+      <c r="C77" t="s">
         <v>113</v>
       </c>
-      <c t="s" r="D77">
+      <c r="D77" t="s">
         <v>369</v>
       </c>
-      <c t="s" r="E77">
+      <c r="E77" t="s">
         <v>135</v>
       </c>
-      <c t="s" r="H77">
+      <c r="H77" t="s">
         <v>550</v>
       </c>
     </row>
     <row spans="1:8" r="78">
-      <c t="s" r="A78">
+      <c r="A78" t="s">
         <v>24</v>
       </c>
-      <c t="s" r="B78">
+      <c r="B78" t="s">
         <v>578</v>
       </c>
-      <c t="s" r="C78">
+      <c r="C78" t="s">
         <v>24</v>
       </c>
-      <c t="s" r="D78">
+      <c r="D78" t="s">
         <v>369</v>
       </c>
-      <c t="s" r="E78">
+      <c r="E78" t="s">
         <v>371</v>
       </c>
-      <c t="s" r="H78">
+      <c r="H78" t="s">
         <v>560</v>
       </c>
     </row>
     <row spans="1:8" r="79">
-      <c t="s" r="A79">
-        <v>370</v>
-      </c>
-      <c t="s" r="B79">
+      <c r="A79" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" t="s">
+        <v>579</v>
+      </c>
+      <c r="C79" t="s">
+        <v>155</v>
+      </c>
+      <c r="D79" t="s">
+        <v>369</v>
+      </c>
+      <c r="E79" t="s">
+        <v>371</v>
+      </c>
+      <c r="H79" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row spans="1:8" r="80">
+      <c r="A80" t="s">
+        <v>370</v>
+      </c>
+      <c r="B80" t="s">
         <v>575</v>
       </c>
-      <c t="s" r="C79">
-        <v>370</v>
-      </c>
-      <c t="s" r="D79">
+      <c r="C80" t="s">
+        <v>370</v>
+      </c>
+      <c r="D80" t="s">
         <v>369</v>
       </c>
-      <c t="s" r="E79">
+      <c r="E80" t="s">
         <v>371</v>
       </c>
-      <c t="s" r="H79">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="80">
-      <c t="s" r="A80">
-        <v>155</v>
-      </c>
-      <c t="s" r="B80">
-        <v>579</v>
-      </c>
-      <c t="s" r="C80">
-        <v>155</v>
-      </c>
-      <c t="s" r="D80">
+      <c r="H80" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row spans="1:8" r="81">
+      <c r="A81" t="s">
+        <v>375</v>
+      </c>
+      <c r="B81" t="s">
+        <v>580</v>
+      </c>
+      <c r="C81" t="s">
+        <v>511</v>
+      </c>
+      <c r="D81" t="s">
+        <v>142</v>
+      </c>
+      <c r="E81" t="s">
+        <v>257</v>
+      </c>
+      <c r="H81" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row spans="1:8" r="82">
+      <c r="A82" t="s">
+        <v>381</v>
+      </c>
+      <c r="B82" t="s">
+        <v>610</v>
+      </c>
+      <c r="C82" t="s">
+        <v>381</v>
+      </c>
+      <c r="D82" t="s">
+        <v>201</v>
+      </c>
+      <c r="E82" t="s">
+        <v>135</v>
+      </c>
+      <c r="H82" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row spans="1:8" r="83">
+      <c r="A83" t="s">
+        <v>485</v>
+      </c>
+      <c r="B83" t="s">
+        <v>566</v>
+      </c>
+      <c r="C83" t="s">
+        <v>485</v>
+      </c>
+      <c r="D83" t="s">
+        <v>182</v>
+      </c>
+      <c r="E83" t="s">
+        <v>371</v>
+      </c>
+      <c r="H83" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row spans="1:8" r="84">
+      <c r="A84" t="s">
+        <v>230</v>
+      </c>
+      <c r="B84" t="s">
+        <v>589</v>
+      </c>
+      <c r="C84" t="s">
+        <v>230</v>
+      </c>
+      <c r="D84" t="s">
         <v>369</v>
       </c>
-      <c t="s" r="E80">
+      <c r="E84" t="s">
+        <v>148</v>
+      </c>
+      <c r="H84" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row spans="1:8" r="85">
+      <c r="A85" t="s">
+        <v>523</v>
+      </c>
+      <c r="B85" t="s">
+        <v>584</v>
+      </c>
+      <c r="C85" t="s">
+        <v>523</v>
+      </c>
+      <c r="D85" t="s">
+        <v>369</v>
+      </c>
+      <c r="E85" t="s">
         <v>371</v>
       </c>
-      <c t="s" r="H80">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="81">
-      <c t="s" r="A81">
-        <v>381</v>
-      </c>
-      <c t="s" r="B81">
-        <v>610</v>
-      </c>
-      <c t="s" r="C81">
-        <v>381</v>
-      </c>
-      <c t="s" r="D81">
-        <v>201</v>
-      </c>
-      <c t="s" r="E81">
-        <v>135</v>
-      </c>
-      <c t="s" r="H81">
-        <v>543</v>
-      </c>
-    </row>
-    <row spans="1:8" r="82">
-      <c t="s" r="A82">
-        <v>375</v>
-      </c>
-      <c t="s" r="B82">
-        <v>580</v>
-      </c>
-      <c t="s" r="C82">
-        <v>511</v>
-      </c>
-      <c t="s" r="D82">
+      <c r="G85" t="s">
+        <v>199</v>
+      </c>
+      <c r="H85" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row spans="1:8" r="86">
+      <c r="A86" t="s">
+        <v>171</v>
+      </c>
+      <c r="B86" t="s">
+        <v>585</v>
+      </c>
+      <c r="C86" t="s">
+        <v>171</v>
+      </c>
+      <c r="D86" t="s">
+        <v>369</v>
+      </c>
+      <c r="E86" t="s">
+        <v>371</v>
+      </c>
+      <c r="G86" t="s">
+        <v>199</v>
+      </c>
+      <c r="H86" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row spans="1:8" r="87">
+      <c r="A87" t="s">
+        <v>199</v>
+      </c>
+      <c r="B87" t="s">
+        <v>587</v>
+      </c>
+      <c r="C87" t="s">
+        <v>199</v>
+      </c>
+      <c r="D87" t="s">
+        <v>369</v>
+      </c>
+      <c r="E87" t="s">
+        <v>146</v>
+      </c>
+      <c r="G87" t="s">
+        <v>199</v>
+      </c>
+      <c r="H87" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row spans="1:8" r="88">
+      <c r="A88" t="s">
+        <v>234</v>
+      </c>
+      <c r="B88" t="s">
+        <v>607</v>
+      </c>
+      <c r="C88" t="s">
+        <v>234</v>
+      </c>
+      <c r="D88" t="s">
+        <v>369</v>
+      </c>
+      <c r="E88" t="s">
+        <v>371</v>
+      </c>
+      <c r="H88" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row spans="1:8" r="89">
+      <c r="A89" t="s">
+        <v>244</v>
+      </c>
+      <c r="B89" t="s">
+        <v>609</v>
+      </c>
+      <c r="C89" t="s">
+        <v>244</v>
+      </c>
+      <c r="D89" t="s">
+        <v>101</v>
+      </c>
+      <c r="E89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row spans="1:8" r="90">
+      <c r="A90" t="s">
+        <v>199</v>
+      </c>
+      <c r="B90" t="s">
+        <v>588</v>
+      </c>
+      <c r="C90" t="s">
+        <v>199</v>
+      </c>
+      <c r="D90" t="s">
+        <v>369</v>
+      </c>
+      <c r="E90" t="s">
+        <v>371</v>
+      </c>
+      <c r="G90" t="s">
+        <v>199</v>
+      </c>
+      <c r="H90" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row spans="1:8" r="91">
+      <c r="A91" t="s">
+        <v>158</v>
+      </c>
+      <c r="B91" t="s">
+        <v>586</v>
+      </c>
+      <c r="C91" t="s">
+        <v>158</v>
+      </c>
+      <c r="D91" t="s">
+        <v>369</v>
+      </c>
+      <c r="E91" t="s">
+        <v>462</v>
+      </c>
+      <c r="G91" t="s">
+        <v>199</v>
+      </c>
+      <c r="H91" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row spans="1:8" r="92">
+      <c r="A92" t="s">
+        <v>232</v>
+      </c>
+      <c r="B92" t="s">
+        <v>608</v>
+      </c>
+      <c r="C92" t="s">
+        <v>232</v>
+      </c>
+      <c r="D92" t="s">
+        <v>369</v>
+      </c>
+      <c r="E92" t="s">
+        <v>151</v>
+      </c>
+      <c r="H92" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row spans="1:8" r="93">
+      <c r="A93" t="s">
+        <v>231</v>
+      </c>
+      <c r="B93" t="s">
+        <v>606</v>
+      </c>
+      <c r="C93" t="s">
+        <v>231</v>
+      </c>
+      <c r="D93" t="s">
+        <v>369</v>
+      </c>
+      <c r="E93" t="s">
+        <v>371</v>
+      </c>
+      <c r="H93" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row spans="1:8" r="94">
+      <c r="A94" t="s">
+        <v>235</v>
+      </c>
+      <c r="B94" t="s">
+        <v>602</v>
+      </c>
+      <c r="C94" t="s">
+        <v>235</v>
+      </c>
+      <c r="D94" t="s">
+        <v>463</v>
+      </c>
+      <c r="E94" t="s">
+        <v>371</v>
+      </c>
+      <c r="H94" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row spans="1:8" r="95">
+      <c r="A95" t="s">
+        <v>400</v>
+      </c>
+      <c r="B95" t="s">
+        <v>596</v>
+      </c>
+      <c r="C95" t="s">
+        <v>400</v>
+      </c>
+      <c r="D95" t="s">
+        <v>369</v>
+      </c>
+      <c r="E95" t="s">
+        <v>258</v>
+      </c>
+      <c r="H95" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row spans="1:8" r="96">
+      <c r="A96" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" t="s">
+        <v>594</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" t="s">
+        <v>369</v>
+      </c>
+      <c r="E96" t="s">
+        <v>371</v>
+      </c>
+      <c r="H96" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row spans="1:8" r="97">
+      <c r="A97" t="s">
+        <v>450</v>
+      </c>
+      <c r="B97" t="s">
+        <v>639</v>
+      </c>
+      <c r="C97" t="s">
+        <v>450</v>
+      </c>
+      <c r="D97" t="s">
+        <v>369</v>
+      </c>
+      <c r="E97" t="s">
+        <v>371</v>
+      </c>
+      <c r="H97" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row spans="1:8" r="98">
+      <c r="A98" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" t="s">
+        <v>592</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>395</v>
+      </c>
+      <c r="E98" t="s">
+        <v>147</v>
+      </c>
+      <c r="H98" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row spans="1:8" r="99">
+      <c r="A99" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" t="s">
+        <v>597</v>
+      </c>
+      <c r="C99" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" t="s">
+        <v>369</v>
+      </c>
+      <c r="E99" t="s">
+        <v>371</v>
+      </c>
+      <c r="H99" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row spans="1:8" r="100">
+      <c r="A100" t="s">
+        <v>233</v>
+      </c>
+      <c r="B100" t="s">
+        <v>591</v>
+      </c>
+      <c r="C100" t="s">
+        <v>233</v>
+      </c>
+      <c r="D100" t="s">
+        <v>398</v>
+      </c>
+      <c r="E100" t="s">
+        <v>371</v>
+      </c>
+      <c r="H100" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row spans="1:8" r="101">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>593</v>
+      </c>
+      <c r="C101" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101" t="s">
+        <v>369</v>
+      </c>
+      <c r="E101" t="s">
+        <v>371</v>
+      </c>
+      <c r="H101" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row spans="1:8" r="102">
+      <c r="A102" t="s">
+        <v>401</v>
+      </c>
+      <c r="B102" t="s">
+        <v>595</v>
+      </c>
+      <c r="C102" t="s">
+        <v>401</v>
+      </c>
+      <c r="D102" t="s">
+        <v>369</v>
+      </c>
+      <c r="E102" t="s">
+        <v>169</v>
+      </c>
+      <c r="H102" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row spans="1:8" r="103">
+      <c r="A103" t="s">
+        <v>202</v>
+      </c>
+      <c r="B103" t="s">
+        <v>612</v>
+      </c>
+      <c r="C103" t="s">
+        <v>202</v>
+      </c>
+      <c r="D103" t="s">
+        <v>369</v>
+      </c>
+      <c r="E103" t="s">
+        <v>144</v>
+      </c>
+      <c r="H103" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row spans="1:8" r="104">
+      <c r="A104" t="s">
+        <v>517</v>
+      </c>
+      <c r="B104" t="s">
+        <v>616</v>
+      </c>
+      <c r="C104" t="s">
+        <v>517</v>
+      </c>
+      <c r="D104" t="s">
+        <v>369</v>
+      </c>
+      <c r="E104" t="s">
+        <v>371</v>
+      </c>
+      <c r="H104" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row spans="1:8" r="105">
+      <c r="A105" t="s">
+        <v>236</v>
+      </c>
+      <c r="B105" t="s">
+        <v>603</v>
+      </c>
+      <c r="C105" t="s">
+        <v>236</v>
+      </c>
+      <c r="D105" t="s">
         <v>142</v>
       </c>
-      <c t="s" r="E82">
-        <v>257</v>
-      </c>
-      <c t="s" r="H82">
-        <v>541</v>
-      </c>
-    </row>
-    <row spans="1:8" r="83">
-      <c t="s" r="A83">
-        <v>485</v>
-      </c>
-      <c t="s" r="B83">
-        <v>566</v>
-      </c>
-      <c t="s" r="C83">
-        <v>485</v>
-      </c>
-      <c t="s" r="D83">
-        <v>182</v>
-      </c>
-      <c t="s" r="E83">
+      <c r="E105" t="s">
+        <v>152</v>
+      </c>
+      <c r="H105" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row spans="1:8" r="106">
+      <c r="A106" t="s">
+        <v>157</v>
+      </c>
+      <c r="B106" t="s">
+        <v>617</v>
+      </c>
+      <c r="C106" t="s">
+        <v>157</v>
+      </c>
+      <c r="D106" t="s">
+        <v>369</v>
+      </c>
+      <c r="E106" t="s">
         <v>371</v>
       </c>
-      <c t="s" r="H83">
-        <v>542</v>
-      </c>
-    </row>
-    <row spans="1:8" r="84">
-      <c t="s" r="A84">
-        <v>230</v>
-      </c>
-      <c t="s" r="B84">
-        <v>589</v>
-      </c>
-      <c t="s" r="C84">
-        <v>230</v>
-      </c>
-      <c t="s" r="D84">
+      <c r="H106" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row spans="1:8" r="107">
+      <c r="A107" t="s">
+        <v>521</v>
+      </c>
+      <c r="B107" t="s">
+        <v>618</v>
+      </c>
+      <c r="C107" t="s">
+        <v>521</v>
+      </c>
+      <c r="D107" t="s">
         <v>369</v>
       </c>
-      <c t="s" r="E84">
-        <v>148</v>
-      </c>
-      <c t="s" r="H84">
-        <v>554</v>
-      </c>
-    </row>
-    <row spans="1:8" r="85">
-      <c t="s" r="A85">
-        <v>523</v>
-      </c>
-      <c t="s" r="B85">
-        <v>584</v>
-      </c>
-      <c t="s" r="C85">
-        <v>523</v>
-      </c>
-      <c t="s" r="D85">
+      <c r="E107" t="s">
+        <v>136</v>
+      </c>
+      <c r="H107" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row spans="1:8" r="108">
+      <c r="A108" t="s">
+        <v>518</v>
+      </c>
+      <c r="B108" t="s">
+        <v>567</v>
+      </c>
+      <c r="C108" t="s">
+        <v>518</v>
+      </c>
+      <c r="D108" t="s">
+        <v>211</v>
+      </c>
+      <c r="E108" t="s">
+        <v>149</v>
+      </c>
+      <c r="G108" t="s">
+        <v>515</v>
+      </c>
+      <c r="H108" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row spans="1:8" r="109">
+      <c r="A109" t="s">
+        <v>517</v>
+      </c>
+      <c r="B109" t="s">
+        <v>621</v>
+      </c>
+      <c r="C109" t="s">
+        <v>517</v>
+      </c>
+      <c r="D109" t="s">
         <v>369</v>
       </c>
-      <c t="s" r="E85">
+      <c r="E109" t="s">
         <v>371</v>
       </c>
-      <c t="s" r="G85">
+      <c r="H109" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row spans="1:8" r="110">
+      <c r="A110" t="s">
+        <v>517</v>
+      </c>
+      <c r="B110" t="s">
+        <v>622</v>
+      </c>
+      <c r="C110" t="s">
+        <v>517</v>
+      </c>
+      <c r="D110" t="s">
+        <v>369</v>
+      </c>
+      <c r="E110" t="s">
+        <v>139</v>
+      </c>
+      <c r="H110" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row spans="1:8" r="111">
+      <c r="A111" t="s">
+        <v>520</v>
+      </c>
+      <c r="B111" t="s">
+        <v>598</v>
+      </c>
+      <c r="C111" t="s">
+        <v>520</v>
+      </c>
+      <c r="D111" t="s">
+        <v>369</v>
+      </c>
+      <c r="E111" t="s">
+        <v>462</v>
+      </c>
+      <c r="H111" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row spans="1:8" r="112">
+      <c r="A112" t="s">
+        <v>519</v>
+      </c>
+      <c r="B112" t="s">
+        <v>581</v>
+      </c>
+      <c r="C112" t="s">
+        <v>519</v>
+      </c>
+      <c r="D112" t="s">
+        <v>369</v>
+      </c>
+      <c r="E112" t="s">
+        <v>137</v>
+      </c>
+      <c r="H112" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row spans="1:8" r="113">
+      <c r="A113" t="s">
+        <v>185</v>
+      </c>
+      <c r="B113" t="s">
+        <v>604</v>
+      </c>
+      <c r="C113" t="s">
+        <v>185</v>
+      </c>
+      <c r="D113" t="s">
+        <v>369</v>
+      </c>
+      <c r="E113" t="s">
+        <v>169</v>
+      </c>
+      <c r="H113" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row spans="1:8" r="114">
+      <c r="A114" t="s">
+        <v>260</v>
+      </c>
+      <c r="B114" t="s">
+        <v>600</v>
+      </c>
+      <c r="C114" t="s">
+        <v>260</v>
+      </c>
+      <c r="D114" t="s">
+        <v>369</v>
+      </c>
+      <c r="E114" t="s">
+        <v>138</v>
+      </c>
+      <c r="H114" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row spans="1:8" r="115">
+      <c r="A115" t="s">
+        <v>517</v>
+      </c>
+      <c r="B115" t="s">
+        <v>582</v>
+      </c>
+      <c r="C115" t="s">
+        <v>517</v>
+      </c>
+      <c r="D115" t="s">
+        <v>369</v>
+      </c>
+      <c r="E115" t="s">
+        <v>256</v>
+      </c>
+      <c r="H115" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row spans="1:8" r="116">
+      <c r="A116" t="s">
+        <v>47</v>
+      </c>
+      <c r="B116" t="s">
+        <v>565</v>
+      </c>
+      <c r="C116" t="s">
+        <v>47</v>
+      </c>
+      <c r="D116" t="s">
+        <v>369</v>
+      </c>
+      <c r="E116" t="s">
+        <v>371</v>
+      </c>
+      <c r="H116" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row spans="1:8" r="117">
+      <c r="A117" t="s">
+        <v>483</v>
+      </c>
+      <c r="B117" t="s">
+        <v>635</v>
+      </c>
+      <c r="C117" t="s">
+        <v>483</v>
+      </c>
+      <c r="D117" t="s">
+        <v>369</v>
+      </c>
+      <c r="E117" t="s">
+        <v>170</v>
+      </c>
+      <c r="H117" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row spans="1:8" r="118">
+      <c r="A118" t="s">
+        <v>402</v>
+      </c>
+      <c r="B118" t="s">
+        <v>623</v>
+      </c>
+      <c r="C118" t="s">
+        <v>402</v>
+      </c>
+      <c r="D118" t="s">
+        <v>369</v>
+      </c>
+      <c r="E118" t="s">
+        <v>145</v>
+      </c>
+      <c r="H118" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row spans="1:8" r="119">
+      <c r="A119" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" t="s">
+        <v>601</v>
+      </c>
+      <c r="C119" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119" t="s">
+        <v>369</v>
+      </c>
+      <c r="E119" t="s">
+        <v>371</v>
+      </c>
+      <c r="G119" t="s">
+        <v>261</v>
+      </c>
+      <c r="H119" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row spans="1:8" r="120">
+      <c r="A120" t="s">
+        <v>451</v>
+      </c>
+      <c r="B120" t="s">
+        <v>626</v>
+      </c>
+      <c r="C120" t="s">
+        <v>451</v>
+      </c>
+      <c r="D120" t="s">
+        <v>369</v>
+      </c>
+      <c r="E120" t="s">
+        <v>371</v>
+      </c>
+      <c r="H120" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row spans="1:8" r="121">
+      <c r="A121" t="s">
+        <v>452</v>
+      </c>
+      <c r="B121" t="s">
+        <v>625</v>
+      </c>
+      <c r="C121" t="s">
+        <v>452</v>
+      </c>
+      <c r="D121" t="s">
+        <v>369</v>
+      </c>
+      <c r="E121" t="s">
+        <v>371</v>
+      </c>
+      <c r="H121" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row spans="1:8" r="122">
+      <c r="A122" t="s">
+        <v>453</v>
+      </c>
+      <c r="B122" t="s">
+        <v>627</v>
+      </c>
+      <c r="C122" t="s">
+        <v>453</v>
+      </c>
+      <c r="D122" t="s">
+        <v>369</v>
+      </c>
+      <c r="E122" t="s">
+        <v>371</v>
+      </c>
+      <c r="H122" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row spans="1:8" r="123">
+      <c r="A123" t="s">
+        <v>295</v>
+      </c>
+      <c r="B123" t="s">
+        <v>624</v>
+      </c>
+      <c r="C123" t="s">
+        <v>295</v>
+      </c>
+      <c r="D123" t="s">
+        <v>369</v>
+      </c>
+      <c r="E123" t="s">
+        <v>169</v>
+      </c>
+      <c r="H123" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row spans="1:8" r="124">
+      <c r="A124" t="s">
+        <v>522</v>
+      </c>
+      <c r="B124" t="s">
+        <v>605</v>
+      </c>
+      <c r="C124" t="s">
+        <v>522</v>
+      </c>
+      <c r="D124" t="s">
+        <v>369</v>
+      </c>
+      <c r="E124" t="s">
+        <v>150</v>
+      </c>
+      <c r="G124" t="s">
         <v>199</v>
       </c>
-      <c t="s" r="H85">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="86">
-      <c t="s" r="A86">
-        <v>171</v>
-      </c>
-      <c t="s" r="B86">
-        <v>585</v>
-      </c>
-      <c t="s" r="C86">
-        <v>171</v>
-      </c>
-      <c t="s" r="D86">
+      <c r="H124" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row spans="1:8" r="125">
+      <c r="A125" t="s">
+        <v>514</v>
+      </c>
+      <c r="B125" t="s">
+        <v>631</v>
+      </c>
+      <c r="C125" t="s">
+        <v>514</v>
+      </c>
+      <c r="D125" t="s">
         <v>369</v>
       </c>
-      <c t="s" r="E86">
+      <c r="E125" t="s">
         <v>371</v>
       </c>
-      <c t="s" r="G86">
-        <v>199</v>
-      </c>
-      <c t="s" r="H86">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="87">
-      <c t="s" r="A87">
-        <v>234</v>
-      </c>
-      <c t="s" r="B87">
-        <v>607</v>
-      </c>
-      <c t="s" r="C87">
-        <v>234</v>
-      </c>
-      <c t="s" r="D87">
+      <c r="H125" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row spans="1:8" r="126">
+      <c r="A126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" t="s">
+        <v>637</v>
+      </c>
+      <c r="C126" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" t="s">
         <v>369</v>
       </c>
-      <c t="s" r="E87">
+      <c r="E126" t="s">
         <v>371</v>
       </c>
-      <c t="s" r="H87">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="88">
-      <c t="s" r="A88">
-        <v>199</v>
-      </c>
-      <c t="s" r="B88">
-        <v>587</v>
-      </c>
-      <c t="s" r="C88">
-        <v>199</v>
-      </c>
-      <c t="s" r="D88">
+      <c r="H126" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row spans="1:8" r="127">
+      <c r="A127" t="s">
+        <v>237</v>
+      </c>
+      <c r="B127" t="s">
+        <v>629</v>
+      </c>
+      <c r="C127" t="s">
+        <v>237</v>
+      </c>
+      <c r="D127" t="s">
         <v>369</v>
       </c>
-      <c t="s" r="E88">
-        <v>146</v>
-      </c>
-      <c t="s" r="G88">
-        <v>199</v>
-      </c>
-      <c t="s" r="H88">
-        <v>551</v>
-      </c>
-    </row>
-    <row spans="1:8" r="89">
-      <c t="s" r="A89">
-        <v>199</v>
-      </c>
-      <c t="s" r="B89">
-        <v>588</v>
-      </c>
-      <c t="s" r="C89">
-        <v>199</v>
-      </c>
-      <c t="s" r="D89">
+      <c r="E127" t="s">
+        <v>371</v>
+      </c>
+      <c r="H127" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row spans="1:8" r="128">
+      <c r="A128" t="s">
+        <v>644</v>
+      </c>
+      <c r="B128" t="s">
+        <v>634</v>
+      </c>
+      <c r="C128" t="s">
+        <v>644</v>
+      </c>
+      <c r="D128" t="s">
         <v>369</v>
       </c>
-      <c t="s" r="E89">
+      <c r="E128" t="s">
         <v>371</v>
       </c>
-      <c t="s" r="G89">
-        <v>199</v>
-      </c>
-      <c t="s" r="H89">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="90">
-      <c t="s" r="A90">
-        <v>244</v>
-      </c>
-      <c t="s" r="B90">
-        <v>609</v>
-      </c>
-      <c t="s" r="C90">
-        <v>244</v>
-      </c>
-      <c t="s" r="D90">
-        <v>101</v>
-      </c>
-      <c t="s" r="E90">
-        <v>46</v>
-      </c>
-      <c t="s" r="H90">
-        <v>539</v>
-      </c>
-    </row>
-    <row spans="1:8" r="91">
-      <c t="s" r="A91">
-        <v>158</v>
-      </c>
-      <c t="s" r="B91">
-        <v>586</v>
-      </c>
-      <c t="s" r="C91">
-        <v>158</v>
-      </c>
-      <c t="s" r="D91">
+      <c r="H128" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row spans="1:8" r="129">
+      <c r="A129" t="s">
+        <v>645</v>
+      </c>
+      <c r="B129" t="s">
+        <v>628</v>
+      </c>
+      <c r="C129" t="s">
+        <v>645</v>
+      </c>
+      <c r="D129" t="s">
         <v>369</v>
       </c>
-      <c t="s" r="E91">
+      <c r="E129" t="s">
+        <v>371</v>
+      </c>
+      <c r="H129" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row spans="1:8" r="130">
+      <c r="A130" t="s">
+        <v>532</v>
+      </c>
+      <c r="B130" t="s">
+        <v>636</v>
+      </c>
+      <c r="C130" t="s">
+        <v>532</v>
+      </c>
+      <c r="D130" t="s">
+        <v>369</v>
+      </c>
+      <c r="E130" t="s">
+        <v>371</v>
+      </c>
+      <c r="H130" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row spans="1:8" r="131">
+      <c r="A131" t="s">
+        <v>642</v>
+      </c>
+      <c r="B131" t="s">
+        <v>633</v>
+      </c>
+      <c r="C131" t="s">
+        <v>642</v>
+      </c>
+      <c r="D131" t="s">
+        <v>369</v>
+      </c>
+      <c r="E131" t="s">
+        <v>371</v>
+      </c>
+      <c r="H131" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row spans="1:8" r="132">
+      <c r="A132" t="s">
+        <v>245</v>
+      </c>
+      <c r="B132" t="s">
+        <v>599</v>
+      </c>
+      <c r="C132" t="s">
+        <v>245</v>
+      </c>
+      <c r="D132" t="s">
+        <v>369</v>
+      </c>
+      <c r="E132" t="s">
+        <v>371</v>
+      </c>
+      <c r="H132" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row spans="1:8" r="133">
+      <c r="A133" t="s">
+        <v>500</v>
+      </c>
+      <c r="B133" t="s">
+        <v>564</v>
+      </c>
+      <c r="C133" t="s">
+        <v>500</v>
+      </c>
+      <c r="D133" t="s">
+        <v>369</v>
+      </c>
+      <c r="E133" t="s">
+        <v>371</v>
+      </c>
+      <c r="H133" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row spans="1:8" r="134">
+      <c r="A134" t="s">
+        <v>643</v>
+      </c>
+      <c r="B134" t="s">
+        <v>632</v>
+      </c>
+      <c r="C134" t="s">
+        <v>643</v>
+      </c>
+      <c r="D134" t="s">
+        <v>369</v>
+      </c>
+      <c r="E134" t="s">
+        <v>371</v>
+      </c>
+      <c r="H134" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row spans="1:8" r="135">
+      <c r="A135" t="s">
+        <v>168</v>
+      </c>
+      <c r="B135" t="s">
+        <v>630</v>
+      </c>
+      <c r="C135" t="s">
+        <v>168</v>
+      </c>
+      <c r="D135" t="s">
+        <v>369</v>
+      </c>
+      <c r="E135" t="s">
+        <v>371</v>
+      </c>
+      <c r="H135" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row spans="1:8" r="136">
+      <c r="A136" t="s">
+        <v>516</v>
+      </c>
+      <c r="B136" t="s">
+        <v>611</v>
+      </c>
+      <c r="C136" t="s">
+        <v>516</v>
+      </c>
+      <c r="D136" t="s">
+        <v>72</v>
+      </c>
+      <c r="E136" t="s">
         <v>462</v>
       </c>
-      <c t="s" r="G91">
-        <v>199</v>
-      </c>
-      <c t="s" r="H91">
-        <v>557</v>
-      </c>
-    </row>
-    <row spans="1:8" r="92">
-      <c t="s" r="A92">
-        <v>232</v>
-      </c>
-      <c t="s" r="B92">
-        <v>608</v>
-      </c>
-      <c t="s" r="C92">
-        <v>232</v>
-      </c>
-      <c t="s" r="D92">
+      <c r="G136" t="s">
+        <v>490</v>
+      </c>
+      <c r="H136" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row spans="1:8" r="137">
+      <c r="A137" t="s">
+        <v>486</v>
+      </c>
+      <c r="B137" t="s">
+        <v>563</v>
+      </c>
+      <c r="C137" t="s">
+        <v>486</v>
+      </c>
+      <c r="D137" t="s">
         <v>369</v>
       </c>
-      <c t="s" r="E92">
-        <v>152</v>
-      </c>
-      <c t="s" r="H92">
-        <v>555</v>
-      </c>
-    </row>
-    <row spans="1:8" r="93">
-      <c t="s" r="A93">
-        <v>231</v>
-      </c>
-      <c t="s" r="B93">
-        <v>606</v>
-      </c>
-      <c t="s" r="C93">
-        <v>231</v>
-      </c>
-      <c t="s" r="D93">
+      <c r="E137" t="s">
+        <v>371</v>
+      </c>
+      <c r="H137" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row spans="1:8" r="138">
+      <c r="A138" t="s">
+        <v>641</v>
+      </c>
+      <c r="B138" t="s">
+        <v>562</v>
+      </c>
+      <c r="C138" t="s">
+        <v>641</v>
+      </c>
+      <c r="D138" t="s">
         <v>369</v>
       </c>
-      <c t="s" r="E93">
+      <c r="E138" t="s">
+        <v>256</v>
+      </c>
+      <c r="H138" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row spans="1:8" r="139">
+      <c r="A139" t="s">
+        <v>379</v>
+      </c>
+      <c r="B139" t="s">
+        <v>561</v>
+      </c>
+      <c r="C139" t="s">
+        <v>379</v>
+      </c>
+      <c r="D139" t="s">
+        <v>369</v>
+      </c>
+      <c r="E139" t="s">
         <v>371</v>
       </c>
-      <c t="s" r="H93">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="94">
-      <c t="s" r="A94">
-        <v>400</v>
-      </c>
-      <c t="s" r="B94">
-        <v>596</v>
-      </c>
-      <c t="s" r="C94">
-        <v>400</v>
-      </c>
-      <c t="s" r="D94">
+      <c r="H139" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row spans="1:8" r="140">
+      <c r="A140" t="s">
+        <v>202</v>
+      </c>
+      <c r="B140" t="s">
+        <v>615</v>
+      </c>
+      <c r="C140" t="s">
+        <v>202</v>
+      </c>
+      <c r="D140" t="s">
         <v>369</v>
       </c>
-      <c t="s" r="E94">
-        <v>258</v>
-      </c>
-      <c t="s" r="H94">
-        <v>559</v>
-      </c>
-    </row>
-    <row spans="1:8" r="95">
-      <c t="s" r="A95">
-        <v>235</v>
-      </c>
-      <c t="s" r="B95">
-        <v>602</v>
-      </c>
-      <c t="s" r="C95">
-        <v>235</v>
-      </c>
-      <c t="s" r="D95">
-        <v>463</v>
-      </c>
-      <c t="s" r="E95">
+      <c r="E140" t="s">
+        <v>144</v>
+      </c>
+      <c r="H140" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row spans="1:8" r="141">
+      <c r="A141" t="s">
+        <v>202</v>
+      </c>
+      <c r="B141" t="s">
+        <v>614</v>
+      </c>
+      <c r="C141" t="s">
+        <v>202</v>
+      </c>
+      <c r="D141" t="s">
+        <v>369</v>
+      </c>
+      <c r="E141" t="s">
+        <v>144</v>
+      </c>
+      <c r="H141" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row spans="1:8" r="142">
+      <c r="A142" t="s">
+        <v>521</v>
+      </c>
+      <c r="B142" t="s">
+        <v>619</v>
+      </c>
+      <c r="C142" t="s">
+        <v>521</v>
+      </c>
+      <c r="D142" t="s">
+        <v>369</v>
+      </c>
+      <c r="E142" t="s">
+        <v>136</v>
+      </c>
+      <c r="H142" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row spans="1:8" r="143">
+      <c r="A143" t="s">
+        <v>521</v>
+      </c>
+      <c r="B143" t="s">
+        <v>620</v>
+      </c>
+      <c r="C143" t="s">
+        <v>521</v>
+      </c>
+      <c r="D143" t="s">
+        <v>369</v>
+      </c>
+      <c r="E143" t="s">
+        <v>136</v>
+      </c>
+      <c r="H143" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row spans="1:8" r="144">
+      <c r="A144" t="s">
+        <v>532</v>
+      </c>
+      <c r="B144" t="s">
+        <v>638</v>
+      </c>
+      <c r="C144" t="s">
+        <v>532</v>
+      </c>
+      <c r="D144" t="s">
+        <v>369</v>
+      </c>
+      <c r="E144" t="s">
         <v>371</v>
       </c>
-      <c t="s" r="H95">
-        <v>546</v>
-      </c>
-    </row>
-    <row spans="1:8" r="96">
-      <c t="s" r="A96">
-        <v>2</v>
-      </c>
-      <c t="s" r="B96">
-        <v>594</v>
-      </c>
-      <c t="s" r="C96">
-        <v>2</v>
-      </c>
-      <c t="s" r="D96">
-        <v>369</v>
-      </c>
-      <c t="s" r="E96">
-        <v>371</v>
-      </c>
-      <c t="s" r="H96">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="97">
-      <c t="s" r="A97">
-        <v>450</v>
-      </c>
-      <c t="s" r="B97">
-        <v>639</v>
-      </c>
-      <c t="s" r="C97">
-        <v>450</v>
-      </c>
-      <c t="s" r="D97">
-        <v>369</v>
-      </c>
-      <c t="s" r="E97">
-        <v>371</v>
-      </c>
-      <c t="s" r="H97">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="98">
-      <c t="s" r="A98">
-        <v>3</v>
-      </c>
-      <c t="s" r="B98">
-        <v>597</v>
-      </c>
-      <c t="s" r="C98">
-        <v>3</v>
-      </c>
-      <c t="s" r="D98">
-        <v>369</v>
-      </c>
-      <c t="s" r="E98">
-        <v>371</v>
-      </c>
-      <c t="s" r="H98">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="99">
-      <c t="s" r="A99">
-        <v>1</v>
-      </c>
-      <c t="s" r="B99">
-        <v>592</v>
-      </c>
-      <c t="s" r="C99">
-        <v>1</v>
-      </c>
-      <c t="s" r="D99">
-        <v>395</v>
-      </c>
-      <c t="s" r="E99">
-        <v>147</v>
-      </c>
-      <c t="s" r="H99">
-        <v>545</v>
-      </c>
-    </row>
-    <row spans="1:8" r="100">
-      <c t="s" r="A100">
-        <v>401</v>
-      </c>
-      <c t="s" r="B100">
-        <v>595</v>
-      </c>
-      <c t="s" r="C100">
-        <v>401</v>
-      </c>
-      <c t="s" r="D100">
-        <v>369</v>
-      </c>
-      <c t="s" r="E100">
-        <v>169</v>
-      </c>
-      <c t="s" r="H100">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="101">
-      <c t="s" r="A101">
-        <v>233</v>
-      </c>
-      <c t="s" r="B101">
-        <v>591</v>
-      </c>
-      <c t="s" r="C101">
-        <v>233</v>
-      </c>
-      <c t="s" r="D101">
-        <v>398</v>
-      </c>
-      <c t="s" r="E101">
-        <v>371</v>
-      </c>
-      <c t="s" r="H101">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="102">
-      <c t="s" r="A102">
-        <v>0</v>
-      </c>
-      <c t="s" r="B102">
-        <v>593</v>
-      </c>
-      <c t="s" r="C102">
-        <v>0</v>
-      </c>
-      <c t="s" r="D102">
-        <v>369</v>
-      </c>
-      <c t="s" r="E102">
-        <v>371</v>
-      </c>
-      <c t="s" r="H102">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="103">
-      <c t="s" r="A103">
-        <v>202</v>
-      </c>
-      <c t="s" r="B103">
-        <v>612</v>
-      </c>
-      <c t="s" r="C103">
-        <v>202</v>
-      </c>
-      <c t="s" r="D103">
-        <v>369</v>
-      </c>
-      <c t="s" r="E103">
-        <v>144</v>
-      </c>
-      <c t="s" r="H103">
-        <v>556</v>
-      </c>
-    </row>
-    <row spans="1:8" r="104">
-      <c t="s" r="A104">
-        <v>517</v>
-      </c>
-      <c t="s" r="B104">
-        <v>616</v>
-      </c>
-      <c t="s" r="C104">
-        <v>517</v>
-      </c>
-      <c t="s" r="D104">
-        <v>369</v>
-      </c>
-      <c t="s" r="E104">
-        <v>371</v>
-      </c>
-      <c t="s" r="H104">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="105">
-      <c t="s" r="A105">
-        <v>518</v>
-      </c>
-      <c t="s" r="B105">
-        <v>567</v>
-      </c>
-      <c t="s" r="C105">
-        <v>518</v>
-      </c>
-      <c t="s" r="D105">
-        <v>211</v>
-      </c>
-      <c t="s" r="E105">
-        <v>150</v>
-      </c>
-      <c t="s" r="G105">
-        <v>515</v>
-      </c>
-      <c t="s" r="H105">
-        <v>544</v>
-      </c>
-    </row>
-    <row spans="1:8" r="106">
-      <c t="s" r="A106">
-        <v>157</v>
-      </c>
-      <c t="s" r="B106">
-        <v>617</v>
-      </c>
-      <c t="s" r="C106">
-        <v>157</v>
-      </c>
-      <c t="s" r="D106">
-        <v>369</v>
-      </c>
-      <c t="s" r="E106">
-        <v>371</v>
-      </c>
-      <c t="s" r="H106">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="107">
-      <c t="s" r="A107">
-        <v>521</v>
-      </c>
-      <c t="s" r="B107">
-        <v>618</v>
-      </c>
-      <c t="s" r="C107">
-        <v>521</v>
-      </c>
-      <c t="s" r="D107">
-        <v>369</v>
-      </c>
-      <c t="s" r="E107">
-        <v>136</v>
-      </c>
-      <c t="s" r="H107">
-        <v>548</v>
-      </c>
-    </row>
-    <row spans="1:8" r="108">
-      <c t="s" r="A108">
-        <v>236</v>
-      </c>
-      <c t="s" r="B108">
-        <v>603</v>
-      </c>
-      <c t="s" r="C108">
-        <v>236</v>
-      </c>
-      <c t="s" r="D108">
-        <v>142</v>
-      </c>
-      <c t="s" r="E108">
-        <v>149</v>
-      </c>
-      <c t="s" r="H108">
-        <v>540</v>
-      </c>
-    </row>
-    <row spans="1:8" r="109">
-      <c t="s" r="A109">
-        <v>517</v>
-      </c>
-      <c t="s" r="B109">
-        <v>621</v>
-      </c>
-      <c t="s" r="C109">
-        <v>517</v>
-      </c>
-      <c t="s" r="D109">
-        <v>369</v>
-      </c>
-      <c t="s" r="E109">
-        <v>371</v>
-      </c>
-      <c t="s" r="H109">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="110">
-      <c t="s" r="A110">
-        <v>517</v>
-      </c>
-      <c t="s" r="B110">
-        <v>622</v>
-      </c>
-      <c t="s" r="C110">
-        <v>517</v>
-      </c>
-      <c t="s" r="D110">
-        <v>369</v>
-      </c>
-      <c t="s" r="E110">
-        <v>139</v>
-      </c>
-      <c t="s" r="H110">
-        <v>549</v>
-      </c>
-    </row>
-    <row spans="1:8" r="111">
-      <c t="s" r="A111">
-        <v>520</v>
-      </c>
-      <c t="s" r="B111">
-        <v>598</v>
-      </c>
-      <c t="s" r="C111">
-        <v>520</v>
-      </c>
-      <c t="s" r="D111">
-        <v>369</v>
-      </c>
-      <c t="s" r="E111">
-        <v>462</v>
-      </c>
-      <c t="s" r="H111">
-        <v>557</v>
-      </c>
-    </row>
-    <row spans="1:8" r="112">
-      <c t="s" r="A112">
-        <v>519</v>
-      </c>
-      <c t="s" r="B112">
-        <v>581</v>
-      </c>
-      <c t="s" r="C112">
-        <v>519</v>
-      </c>
-      <c t="s" r="D112">
-        <v>369</v>
-      </c>
-      <c t="s" r="E112">
-        <v>137</v>
-      </c>
-      <c t="s" r="H112">
-        <v>549</v>
-      </c>
-    </row>
-    <row spans="1:8" r="113">
-      <c t="s" r="A113">
-        <v>185</v>
-      </c>
-      <c t="s" r="B113">
-        <v>604</v>
-      </c>
-      <c t="s" r="C113">
-        <v>185</v>
-      </c>
-      <c t="s" r="D113">
-        <v>369</v>
-      </c>
-      <c t="s" r="E113">
-        <v>169</v>
-      </c>
-      <c t="s" r="H113">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="114">
-      <c t="s" r="A114">
-        <v>260</v>
-      </c>
-      <c t="s" r="B114">
-        <v>600</v>
-      </c>
-      <c t="s" r="C114">
-        <v>260</v>
-      </c>
-      <c t="s" r="D114">
-        <v>369</v>
-      </c>
-      <c t="s" r="E114">
-        <v>138</v>
-      </c>
-      <c t="s" r="H114">
-        <v>547</v>
-      </c>
-    </row>
-    <row spans="1:8" r="115">
-      <c t="s" r="A115">
-        <v>47</v>
-      </c>
-      <c t="s" r="B115">
-        <v>565</v>
-      </c>
-      <c t="s" r="C115">
-        <v>47</v>
-      </c>
-      <c t="s" r="D115">
-        <v>369</v>
-      </c>
-      <c t="s" r="E115">
-        <v>371</v>
-      </c>
-      <c t="s" r="H115">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="116">
-      <c t="s" r="A116">
-        <v>517</v>
-      </c>
-      <c t="s" r="B116">
-        <v>582</v>
-      </c>
-      <c t="s" r="C116">
-        <v>517</v>
-      </c>
-      <c t="s" r="D116">
-        <v>369</v>
-      </c>
-      <c t="s" r="E116">
-        <v>256</v>
-      </c>
-      <c t="s" r="H116">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="117">
-      <c t="s" r="A117">
-        <v>483</v>
-      </c>
-      <c t="s" r="B117">
-        <v>635</v>
-      </c>
-      <c t="s" r="C117">
-        <v>483</v>
-      </c>
-      <c t="s" r="D117">
-        <v>369</v>
-      </c>
-      <c t="s" r="E117">
-        <v>170</v>
-      </c>
-      <c t="s" r="H117">
-        <v>558</v>
-      </c>
-    </row>
-    <row spans="1:8" r="118">
-      <c t="s" r="A118">
-        <v>402</v>
-      </c>
-      <c t="s" r="B118">
-        <v>623</v>
-      </c>
-      <c t="s" r="C118">
-        <v>402</v>
-      </c>
-      <c t="s" r="D118">
-        <v>369</v>
-      </c>
-      <c t="s" r="E118">
-        <v>145</v>
-      </c>
-      <c t="s" r="H118">
-        <v>553</v>
-      </c>
-    </row>
-    <row spans="1:8" r="119">
-      <c t="s" r="A119">
-        <v>532</v>
-      </c>
-      <c t="s" r="B119">
-        <v>638</v>
-      </c>
-      <c t="s" r="C119">
-        <v>532</v>
-      </c>
-      <c t="s" r="D119">
-        <v>369</v>
-      </c>
-      <c t="s" r="E119">
-        <v>371</v>
-      </c>
-      <c t="s" r="H119">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="120">
-      <c t="s" r="A120">
-        <v>4</v>
-      </c>
-      <c t="s" r="B120">
-        <v>601</v>
-      </c>
-      <c t="s" r="C120">
-        <v>4</v>
-      </c>
-      <c t="s" r="D120">
-        <v>369</v>
-      </c>
-      <c t="s" r="E120">
-        <v>371</v>
-      </c>
-      <c t="s" r="G120">
-        <v>261</v>
-      </c>
-      <c t="s" r="H120">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="121">
-      <c t="s" r="A121">
-        <v>451</v>
-      </c>
-      <c t="s" r="B121">
-        <v>626</v>
-      </c>
-      <c t="s" r="C121">
-        <v>451</v>
-      </c>
-      <c t="s" r="D121">
-        <v>369</v>
-      </c>
-      <c t="s" r="E121">
-        <v>371</v>
-      </c>
-      <c t="s" r="H121">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="122">
-      <c t="s" r="A122">
-        <v>452</v>
-      </c>
-      <c t="s" r="B122">
-        <v>625</v>
-      </c>
-      <c t="s" r="C122">
-        <v>452</v>
-      </c>
-      <c t="s" r="D122">
-        <v>369</v>
-      </c>
-      <c t="s" r="E122">
-        <v>371</v>
-      </c>
-      <c t="s" r="H122">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="123">
-      <c t="s" r="A123">
-        <v>453</v>
-      </c>
-      <c t="s" r="B123">
-        <v>627</v>
-      </c>
-      <c t="s" r="C123">
-        <v>453</v>
-      </c>
-      <c t="s" r="D123">
-        <v>369</v>
-      </c>
-      <c t="s" r="E123">
-        <v>371</v>
-      </c>
-      <c t="s" r="H123">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="124">
-      <c t="s" r="A124">
-        <v>295</v>
-      </c>
-      <c t="s" r="B124">
-        <v>624</v>
-      </c>
-      <c t="s" r="C124">
-        <v>295</v>
-      </c>
-      <c t="s" r="D124">
-        <v>369</v>
-      </c>
-      <c t="s" r="E124">
-        <v>169</v>
-      </c>
-      <c t="s" r="H124">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="125">
-      <c t="s" r="A125">
-        <v>514</v>
-      </c>
-      <c t="s" r="B125">
-        <v>631</v>
-      </c>
-      <c t="s" r="C125">
-        <v>514</v>
-      </c>
-      <c t="s" r="D125">
-        <v>369</v>
-      </c>
-      <c t="s" r="E125">
-        <v>371</v>
-      </c>
-      <c t="s" r="H125">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="126">
-      <c t="s" r="A126">
-        <v>237</v>
-      </c>
-      <c t="s" r="B126">
-        <v>629</v>
-      </c>
-      <c t="s" r="C126">
-        <v>237</v>
-      </c>
-      <c t="s" r="D126">
-        <v>369</v>
-      </c>
-      <c t="s" r="E126">
-        <v>371</v>
-      </c>
-      <c t="s" r="H126">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="127">
-      <c t="s" r="A127">
-        <v>644</v>
-      </c>
-      <c t="s" r="B127">
-        <v>634</v>
-      </c>
-      <c t="s" r="C127">
-        <v>644</v>
-      </c>
-      <c t="s" r="D127">
-        <v>369</v>
-      </c>
-      <c t="s" r="E127">
-        <v>371</v>
-      </c>
-      <c t="s" r="H127">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="128">
-      <c t="s" r="A128">
-        <v>522</v>
-      </c>
-      <c t="s" r="B128">
-        <v>605</v>
-      </c>
-      <c t="s" r="C128">
-        <v>522</v>
-      </c>
-      <c t="s" r="D128">
-        <v>369</v>
-      </c>
-      <c t="s" r="E128">
-        <v>151</v>
-      </c>
-      <c t="s" r="G128">
-        <v>199</v>
-      </c>
-      <c t="s" r="H128">
-        <v>552</v>
-      </c>
-    </row>
-    <row spans="1:8" r="129">
-      <c t="s" r="A129">
-        <v>5</v>
-      </c>
-      <c t="s" r="B129">
-        <v>637</v>
-      </c>
-      <c t="s" r="C129">
-        <v>5</v>
-      </c>
-      <c t="s" r="D129">
-        <v>369</v>
-      </c>
-      <c t="s" r="E129">
-        <v>371</v>
-      </c>
-      <c t="s" r="H129">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="130">
-      <c t="s" r="A130">
-        <v>645</v>
-      </c>
-      <c t="s" r="B130">
-        <v>628</v>
-      </c>
-      <c t="s" r="C130">
-        <v>645</v>
-      </c>
-      <c t="s" r="D130">
-        <v>369</v>
-      </c>
-      <c t="s" r="E130">
-        <v>371</v>
-      </c>
-      <c t="s" r="H130">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="131">
-      <c t="s" r="A131">
-        <v>642</v>
-      </c>
-      <c t="s" r="B131">
-        <v>633</v>
-      </c>
-      <c t="s" r="C131">
-        <v>642</v>
-      </c>
-      <c t="s" r="D131">
-        <v>369</v>
-      </c>
-      <c t="s" r="E131">
-        <v>371</v>
-      </c>
-      <c t="s" r="H131">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="132">
-      <c t="s" r="A132">
-        <v>532</v>
-      </c>
-      <c t="s" r="B132">
-        <v>636</v>
-      </c>
-      <c t="s" r="C132">
-        <v>532</v>
-      </c>
-      <c t="s" r="D132">
-        <v>369</v>
-      </c>
-      <c t="s" r="E132">
-        <v>371</v>
-      </c>
-      <c t="s" r="H132">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="133">
-      <c t="s" r="A133">
-        <v>245</v>
-      </c>
-      <c t="s" r="B133">
-        <v>599</v>
-      </c>
-      <c t="s" r="C133">
-        <v>245</v>
-      </c>
-      <c t="s" r="D133">
-        <v>369</v>
-      </c>
-      <c t="s" r="E133">
-        <v>371</v>
-      </c>
-      <c t="s" r="H133">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="134">
-      <c t="s" r="A134">
-        <v>500</v>
-      </c>
-      <c t="s" r="B134">
-        <v>564</v>
-      </c>
-      <c t="s" r="C134">
-        <v>500</v>
-      </c>
-      <c t="s" r="D134">
-        <v>369</v>
-      </c>
-      <c t="s" r="E134">
-        <v>371</v>
-      </c>
-      <c t="s" r="H134">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="135">
-      <c t="s" r="A135">
-        <v>643</v>
-      </c>
-      <c t="s" r="B135">
-        <v>632</v>
-      </c>
-      <c t="s" r="C135">
-        <v>643</v>
-      </c>
-      <c t="s" r="D135">
-        <v>369</v>
-      </c>
-      <c t="s" r="E135">
-        <v>371</v>
-      </c>
-      <c t="s" r="H135">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="136">
-      <c t="s" r="A136">
-        <v>168</v>
-      </c>
-      <c t="s" r="B136">
-        <v>630</v>
-      </c>
-      <c t="s" r="C136">
-        <v>168</v>
-      </c>
-      <c t="s" r="D136">
-        <v>369</v>
-      </c>
-      <c t="s" r="E136">
-        <v>371</v>
-      </c>
-      <c t="s" r="H136">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="137">
-      <c t="s" r="A137">
-        <v>486</v>
-      </c>
-      <c t="s" r="B137">
-        <v>563</v>
-      </c>
-      <c t="s" r="C137">
-        <v>486</v>
-      </c>
-      <c t="s" r="D137">
-        <v>369</v>
-      </c>
-      <c t="s" r="E137">
-        <v>371</v>
-      </c>
-      <c t="s" r="H137">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="138">
-      <c t="s" r="A138">
-        <v>641</v>
-      </c>
-      <c t="s" r="B138">
-        <v>562</v>
-      </c>
-      <c t="s" r="C138">
-        <v>641</v>
-      </c>
-      <c t="s" r="D138">
-        <v>369</v>
-      </c>
-      <c t="s" r="E138">
-        <v>256</v>
-      </c>
-      <c t="s" r="H138">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="139">
-      <c t="s" r="A139">
-        <v>379</v>
-      </c>
-      <c t="s" r="B139">
-        <v>561</v>
-      </c>
-      <c t="s" r="C139">
-        <v>379</v>
-      </c>
-      <c t="s" r="D139">
-        <v>369</v>
-      </c>
-      <c t="s" r="E139">
-        <v>371</v>
-      </c>
-      <c t="s" r="H139">
-        <v>560</v>
-      </c>
-    </row>
-    <row spans="1:8" r="140">
-      <c t="s" r="A140">
-        <v>516</v>
-      </c>
-      <c t="s" r="B140">
-        <v>611</v>
-      </c>
-      <c t="s" r="C140">
-        <v>516</v>
-      </c>
-      <c t="s" r="D140">
-        <v>72</v>
-      </c>
-      <c t="s" r="E140">
-        <v>462</v>
-      </c>
-      <c t="s" r="G140">
-        <v>490</v>
-      </c>
-      <c t="s" r="H140">
-        <v>538</v>
-      </c>
-    </row>
-    <row spans="1:8" r="141">
-      <c t="s" r="A141">
-        <v>202</v>
-      </c>
-      <c t="s" r="B141">
-        <v>615</v>
-      </c>
-      <c t="s" r="C141">
-        <v>202</v>
-      </c>
-      <c t="s" r="D141">
-        <v>369</v>
-      </c>
-      <c t="s" r="E141">
-        <v>144</v>
-      </c>
-      <c t="s" r="H141">
-        <v>556</v>
-      </c>
-    </row>
-    <row spans="1:8" r="142">
-      <c t="s" r="A142">
-        <v>202</v>
-      </c>
-      <c t="s" r="B142">
-        <v>614</v>
-      </c>
-      <c t="s" r="C142">
-        <v>202</v>
-      </c>
-      <c t="s" r="D142">
-        <v>369</v>
-      </c>
-      <c t="s" r="E142">
-        <v>144</v>
-      </c>
-      <c t="s" r="H142">
-        <v>556</v>
-      </c>
-    </row>
-    <row spans="1:8" r="143">
-      <c t="s" r="A143">
-        <v>521</v>
-      </c>
-      <c t="s" r="B143">
-        <v>619</v>
-      </c>
-      <c t="s" r="C143">
-        <v>521</v>
-      </c>
-      <c t="s" r="D143">
-        <v>369</v>
-      </c>
-      <c t="s" r="E143">
-        <v>136</v>
-      </c>
-      <c t="s" r="H143">
-        <v>548</v>
-      </c>
-    </row>
-    <row spans="1:8" r="144">
-      <c t="s" r="A144">
-        <v>521</v>
-      </c>
-      <c t="s" r="B144">
-        <v>620</v>
-      </c>
-      <c t="s" r="C144">
-        <v>521</v>
-      </c>
-      <c t="s" r="D144">
-        <v>369</v>
-      </c>
-      <c t="s" r="E144">
-        <v>136</v>
-      </c>
-      <c t="s" r="H144">
-        <v>548</v>
+      <c r="H144" t="s">
+        <v>560</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" left="0.75" footer="0.5" bottom="1" header="0.5" right="0.75"/>
+  <pageMargins top="1" right="0.75" footer="0.5" left="0.75" bottom="1" header="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection sqref="A1" activeCell="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <sheetData/>
-  <pageMargins top="1" left="0.75" footer="0.5" bottom="1" header="0.5" right="0.75"/>
+  <pageMargins top="1" right="0.75" footer="0.5" left="0.75" bottom="1" header="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
   <dimension ref="A1:A183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection sqref="A1" activeCell="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <sheetData>
     <row spans="1:1" r="2">
-      <c t="s" r="A2">
+      <c r="A2" t="s">
         <v>26</v>
       </c>
     </row>
     <row spans="1:1" r="3">
-      <c t="s" r="A3">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
     </row>
     <row spans="1:1" r="4">
-      <c t="s" r="A4">
+      <c r="A4" t="s">
         <v>32</v>
       </c>
     </row>
     <row spans="1:1" r="5">
-      <c t="s" r="A5">
+      <c r="A5" t="s">
         <v>31</v>
       </c>
     </row>
     <row spans="1:1" r="6">
-      <c t="s" r="A6">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
     </row>
     <row spans="1:1" r="7">
-      <c t="s" r="A7">
+      <c r="A7" t="s">
         <v>28</v>
       </c>
     </row>
     <row spans="1:1" r="8">
-      <c t="s" r="A8">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
     </row>
     <row spans="1:1" r="9">
-      <c t="s" r="A9">
+      <c r="A9" t="s">
         <v>43</v>
       </c>
     </row>
     <row spans="1:1" r="10">
-      <c t="s" r="A10">
+      <c r="A10" t="s">
         <v>44</v>
       </c>
     </row>
     <row spans="1:1" r="11">
-      <c t="s" r="A11">
+      <c r="A11" t="s">
         <v>33</v>
       </c>
     </row>
     <row spans="1:1" r="12">
-      <c t="s" r="A12">
+      <c r="A12" t="s">
         <v>40</v>
       </c>
     </row>
     <row spans="1:1" r="13">
-      <c t="s" r="A13">
+      <c r="A13" t="s">
         <v>34</v>
       </c>
     </row>
     <row spans="1:1" r="14">
-      <c t="s" r="A14">
+      <c r="A14" t="s">
         <v>35</v>
       </c>
     </row>
     <row spans="1:1" r="15">
-      <c t="s" r="A15">
+      <c r="A15" t="s">
         <v>42</v>
       </c>
     </row>
     <row spans="1:1" r="16">
-      <c t="s" r="A16">
+      <c r="A16" t="s">
         <v>41</v>
       </c>
     </row>
     <row spans="1:1" r="17">
-      <c t="s" r="A17">
+      <c r="A17" t="s">
         <v>36</v>
       </c>
     </row>
     <row spans="1:1" r="18">
-      <c t="s" r="A18">
+      <c r="A18" t="s">
         <v>37</v>
       </c>
     </row>
     <row spans="1:1" r="19">
-      <c t="s" r="A19">
+      <c r="A19" t="s">
         <v>38</v>
       </c>
     </row>
     <row spans="1:1" r="20">
-      <c t="s" r="A20">
+      <c r="A20" t="s">
         <v>39</v>
       </c>
     </row>
     <row spans="1:1" r="21">
-      <c t="s" r="A21">
+      <c r="A21" t="s">
         <v>45</v>
       </c>
     </row>
     <row spans="1:1" r="22">
-      <c t="s" r="A22">
+      <c r="A22" t="s">
         <v>48</v>
       </c>
     </row>
     <row spans="1:1" r="23">
-      <c t="s" r="A23">
+      <c r="A23" t="s">
         <v>49</v>
       </c>
     </row>
     <row spans="1:1" r="24">
-      <c t="s" r="A24">
+      <c r="A24" t="s">
         <v>50</v>
       </c>
     </row>
     <row spans="1:1" r="25">
-      <c t="s" r="A25">
+      <c r="A25" t="s">
         <v>51</v>
       </c>
     </row>
     <row spans="1:1" r="26">
-      <c t="s" r="A26">
+      <c r="A26" t="s">
         <v>52</v>
       </c>
     </row>
     <row spans="1:1" r="27">
-      <c t="s" r="A27">
+      <c r="A27" t="s">
         <v>53</v>
       </c>
     </row>
     <row spans="1:1" r="28">
-      <c t="s" r="A28">
+      <c r="A28" t="s">
         <v>64</v>
       </c>
     </row>
     <row spans="1:1" r="29">
-      <c t="s" r="A29">
+      <c r="A29" t="s">
         <v>54</v>
       </c>
     </row>
     <row spans="1:1" r="30">
-      <c t="s" r="A30">
+      <c r="A30" t="s">
         <v>55</v>
       </c>
     </row>
     <row spans="1:1" r="31">
-      <c t="s" r="A31">
+      <c r="A31" t="s">
         <v>65</v>
       </c>
     </row>
     <row spans="1:1" r="32">
-      <c t="s" r="A32">
+      <c r="A32" t="s">
         <v>56</v>
       </c>
     </row>
     <row spans="1:1" r="33">
-      <c t="s" r="A33">
+      <c r="A33" t="s">
         <v>57</v>
       </c>
     </row>
     <row spans="1:1" r="34">
-      <c t="s" r="A34">
+      <c r="A34" t="s">
         <v>66</v>
       </c>
     </row>
     <row spans="1:1" r="35">
-      <c t="s" r="A35">
+      <c r="A35" t="s">
         <v>67</v>
       </c>
     </row>
     <row spans="1:1" r="36">
-      <c t="s" r="A36">
+      <c r="A36" t="s">
         <v>58</v>
       </c>
     </row>
     <row spans="1:1" r="37">
-      <c t="s" r="A37">
+      <c r="A37" t="s">
         <v>68</v>
       </c>
     </row>
     <row spans="1:1" r="38">
-      <c t="s" r="A38">
+      <c r="A38" t="s">
         <v>69</v>
       </c>
     </row>
     <row spans="1:1" r="39">
-      <c t="s" r="A39">
+      <c r="A39" t="s">
         <v>59</v>
       </c>
     </row>
     <row spans="1:1" r="40">
-      <c t="s" r="A40">
+      <c r="A40" t="s">
         <v>70</v>
       </c>
     </row>
     <row spans="1:1" r="41">
-      <c t="s" r="A41">
+      <c r="A41" t="s">
         <v>60</v>
       </c>
     </row>
     <row spans="1:1" r="42">
-      <c t="s" r="A42">
+      <c r="A42" t="s">
         <v>61</v>
       </c>
     </row>
     <row spans="1:1" r="43">
-      <c t="s" r="A43">
+      <c r="A43" t="s">
         <v>62</v>
       </c>
     </row>
     <row spans="1:1" r="44">
-      <c t="s" r="A44">
+      <c r="A44" t="s">
         <v>63</v>
       </c>
     </row>
     <row spans="1:1" r="45">
-      <c t="s" r="A45">
+      <c r="A45" t="s">
         <v>71</v>
       </c>
     </row>
     <row spans="1:1" r="46">
-      <c t="s" r="A46">
+      <c r="A46" t="s">
         <v>73</v>
       </c>
     </row>
     <row spans="1:1" r="47">
-      <c t="s" r="A47">
+      <c r="A47" t="s">
         <v>74</v>
       </c>
     </row>
     <row spans="1:1" r="48">
-      <c t="s" r="A48">
+      <c r="A48" t="s">
         <v>79</v>
       </c>
     </row>
     <row spans="1:1" r="49">
-      <c t="s" r="A49">
+      <c r="A49" t="s">
         <v>75</v>
       </c>
     </row>
     <row spans="1:1" r="50">
-      <c t="s" r="A50">
+      <c r="A50" t="s">
         <v>76</v>
       </c>
     </row>
     <row spans="1:1" r="51">
-      <c t="s" r="A51">
+      <c r="A51" t="s">
         <v>77</v>
       </c>
     </row>
     <row spans="1:1" r="52">
-      <c t="s" r="A52">
+      <c r="A52" t="s">
         <v>78</v>
       </c>
     </row>
     <row spans="1:1" r="53">
-      <c t="s" r="A53">
+      <c r="A53" t="s">
         <v>80</v>
       </c>
     </row>
     <row spans="1:1" r="54">
-      <c t="s" r="A54">
+      <c r="A54" t="s">
         <v>100</v>
       </c>
     </row>
     <row spans="1:1" r="55">
-      <c t="s" r="A55">
+      <c r="A55" t="s">
         <v>102</v>
       </c>
     </row>
     <row spans="1:1" r="56">
-      <c t="s" r="A56">
+      <c r="A56" t="s">
         <v>103</v>
       </c>
     </row>
     <row spans="1:1" r="57">
-      <c t="s" r="A57">
+      <c r="A57" t="s">
         <v>104</v>
       </c>
     </row>
     <row spans="1:1" r="58">
-      <c t="s" r="A58">
+      <c r="A58" t="s">
         <v>105</v>
       </c>
     </row>
     <row spans="1:1" r="59">
-      <c t="s" r="A59">
+      <c r="A59" t="s">
         <v>128</v>
       </c>
     </row>
     <row spans="1:1" r="60">
-      <c t="s" r="A60">
+      <c r="A60" t="s">
         <v>129</v>
       </c>
     </row>
     <row spans="1:1" r="61">
-      <c t="s" r="A61">
+      <c r="A61" t="s">
         <v>133</v>
       </c>
     </row>
     <row spans="1:1" r="62">
-      <c t="s" r="A62">
+      <c r="A62" t="s">
         <v>130</v>
       </c>
     </row>
     <row spans="1:1" r="63">
-      <c t="s" r="A63">
+      <c r="A63" t="s">
         <v>134</v>
       </c>
     </row>
     <row spans="1:1" r="64">
-      <c t="s" r="A64">
+      <c r="A64" t="s">
         <v>131</v>
       </c>
     </row>
     <row spans="1:1" r="65">
-      <c t="s" r="A65">
+      <c r="A65" t="s">
         <v>132</v>
       </c>
     </row>
     <row spans="1:1" r="66">
-      <c t="s" r="A66">
+      <c r="A66" t="s">
         <v>140</v>
       </c>
     </row>
     <row spans="1:1" r="67">
-      <c t="s" r="A67">
+      <c r="A67" t="s">
         <v>141</v>
       </c>
     </row>
     <row spans="1:1" r="68">
-      <c t="s" r="A68">
+      <c r="A68" t="s">
         <v>143</v>
       </c>
     </row>
     <row spans="1:1" r="69">
-      <c t="s" r="A69">
+      <c r="A69" t="s">
         <v>153</v>
       </c>
     </row>
     <row spans="1:1" r="70">
-      <c t="s" r="A70">
+      <c r="A70" t="s">
         <v>160</v>
       </c>
     </row>
     <row spans="1:1" r="71">
-      <c t="s" r="A71">
+      <c r="A71" t="s">
         <v>161</v>
       </c>
     </row>
     <row spans="1:1" r="72">
-      <c t="s" r="A72">
+      <c r="A72" t="s">
         <v>172</v>
       </c>
     </row>
     <row spans="1:1" r="73">
-      <c t="s" r="A73">
+      <c r="A73" t="s">
         <v>184</v>
       </c>
     </row>
     <row spans="1:1" r="74">
-      <c t="s" r="A74">
+      <c r="A74" t="s">
         <v>183</v>
       </c>
     </row>
     <row spans="1:1" r="75">
-      <c t="s" r="A75">
+      <c r="A75" t="s">
         <v>186</v>
       </c>
     </row>
     <row spans="1:1" r="76">
-      <c t="s" r="A76">
+      <c r="A76" t="s">
         <v>190</v>
       </c>
     </row>
     <row spans="1:1" r="77">
-      <c t="s" r="A77">
+      <c r="A77" t="s">
         <v>191</v>
       </c>
     </row>
     <row spans="1:1" r="78">
-      <c t="s" r="A78">
+      <c r="A78" t="s">
         <v>187</v>
       </c>
     </row>
     <row spans="1:1" r="79">
-      <c t="s" r="A79">
+      <c r="A79" t="s">
         <v>188</v>
       </c>
     </row>
     <row spans="1:1" r="80">
-      <c t="s" r="A80">
+      <c r="A80" t="s">
         <v>189</v>
       </c>
     </row>
     <row spans="1:1" r="81">
-      <c t="s" r="A81">
+      <c r="A81" t="s">
         <v>200</v>
       </c>
     </row>
     <row spans="1:1" r="82">
-      <c t="s" r="A82">
+      <c r="A82" t="s">
         <v>203</v>
       </c>
     </row>
     <row spans="1:1" r="83">
-      <c t="s" r="A83">
+      <c r="A83" t="s">
         <v>224</v>
       </c>
     </row>
     <row spans="1:1" r="84">
-      <c t="s" r="A84">
+      <c r="A84" t="s">
         <v>225</v>
       </c>
     </row>
     <row spans="1:1" r="85">
-      <c t="s" r="A85">
+      <c r="A85" t="s">
         <v>226</v>
       </c>
     </row>
     <row spans="1:1" r="86">
-      <c t="s" r="A86">
+      <c r="A86" t="s">
         <v>227</v>
       </c>
     </row>
     <row spans="1:1" r="87">
-      <c t="s" r="A87">
+      <c r="A87" t="s">
         <v>228</v>
       </c>
     </row>
     <row spans="1:1" r="88">
-      <c t="s" r="A88">
+      <c r="A88" t="s">
         <v>229</v>
       </c>
     </row>
     <row spans="1:1" r="89">
-      <c t="s" r="A89">
+      <c r="A89" t="s">
         <v>259</v>
       </c>
     </row>
     <row spans="1:1" r="90">
-      <c t="s" r="A90">
+      <c r="A90" t="s">
         <v>262</v>
       </c>
     </row>
     <row spans="1:1" r="91">
-      <c t="s" r="A91">
+      <c r="A91" t="s">
         <v>263</v>
       </c>
     </row>
     <row spans="1:1" r="92">
-      <c t="s" r="A92">
+      <c r="A92" t="s">
         <v>264</v>
       </c>
     </row>
     <row spans="1:1" r="93">
-      <c t="s" r="A93">
+      <c r="A93" t="s">
         <v>265</v>
       </c>
     </row>
     <row spans="1:1" r="94">
-      <c t="s" r="A94">
+      <c r="A94" t="s">
         <v>266</v>
       </c>
     </row>
     <row spans="1:1" r="95">
-      <c t="s" r="A95">
+      <c r="A95" t="s">
         <v>268</v>
       </c>
     </row>
     <row spans="1:1" r="96">
-      <c t="s" r="A96">
+      <c r="A96" t="s">
         <v>269</v>
       </c>
     </row>
     <row spans="1:1" r="97">
-      <c t="s" r="A97">
+      <c r="A97" t="s">
         <v>270</v>
       </c>
     </row>
     <row spans="1:1" r="98">
-      <c t="s" r="A98">
+      <c r="A98" t="s">
         <v>271</v>
       </c>
     </row>
     <row spans="1:1" r="99">
-      <c t="s" r="A99">
+      <c r="A99" t="s">
         <v>272</v>
       </c>
     </row>
     <row spans="1:1" r="100">
-      <c t="s" r="A100">
+      <c r="A100" t="s">
         <v>267</v>
       </c>
     </row>
     <row spans="1:1" r="101">
-      <c t="s" r="A101">
+      <c r="A101" t="s">
         <v>273</v>
       </c>
     </row>
     <row spans="1:1" r="102">
-      <c t="s" r="A102">
+      <c r="A102" t="s">
         <v>274</v>
       </c>
     </row>
     <row spans="1:1" r="103">
-      <c t="s" r="A103">
+      <c r="A103" t="s">
         <v>275</v>
       </c>
     </row>
     <row spans="1:1" r="104">
-      <c t="s" r="A104">
+      <c r="A104" t="s">
         <v>276</v>
       </c>
     </row>
     <row spans="1:1" r="105">
-      <c t="s" r="A105">
+      <c r="A105" t="s">
         <v>277</v>
       </c>
     </row>
     <row spans="1:1" r="106">
-      <c t="s" r="A106">
+      <c r="A106" t="s">
         <v>292</v>
       </c>
     </row>
     <row spans="1:1" r="107">
-      <c t="s" r="A107">
+      <c r="A107" t="s">
         <v>293</v>
       </c>
     </row>
     <row spans="1:1" r="108">
-      <c t="s" r="A108">
+      <c r="A108" t="s">
         <v>294</v>
       </c>
     </row>
     <row spans="1:1" r="109">
-      <c t="s" r="A109">
+      <c r="A109" t="s">
         <v>640</v>
       </c>
     </row>
     <row spans="1:1" r="110">
-      <c t="s" r="A110">
+      <c r="A110" t="s">
         <v>307</v>
       </c>
     </row>
     <row spans="1:1" r="111">
-      <c t="s" r="A111">
+      <c r="A111" t="s">
         <v>308</v>
       </c>
     </row>
     <row spans="1:1" r="112">
-      <c t="s" r="A112">
+      <c r="A112" t="s">
         <v>309</v>
       </c>
     </row>
     <row spans="1:1" r="113">
-      <c t="s" r="A113">
+      <c r="A113" t="s">
         <v>332</v>
       </c>
     </row>
     <row spans="1:1" r="114">
-      <c t="s" r="A114">
+      <c r="A114" t="s">
         <v>352</v>
       </c>
     </row>
     <row spans="1:1" r="115">
-      <c t="s" r="A115">
+      <c r="A115" t="s">
         <v>354</v>
       </c>
     </row>
     <row spans="1:1" r="116">
-      <c t="s" r="A116">
+      <c r="A116" t="s">
         <v>353</v>
       </c>
     </row>
     <row spans="1:1" r="117">
-      <c t="s" r="A117">
+      <c r="A117" t="s">
         <v>355</v>
       </c>
     </row>
     <row spans="1:1" r="118">
-      <c t="s" r="A118">
+      <c r="A118" t="s">
         <v>356</v>
       </c>
     </row>
     <row spans="1:1" r="119">
-      <c t="s" r="A119">
+      <c r="A119" t="s">
         <v>357</v>
       </c>
     </row>
     <row spans="1:1" r="120">
-      <c t="s" r="A120">
+      <c r="A120" t="s">
         <v>359</v>
       </c>
     </row>
     <row spans="1:1" r="121">
-      <c t="s" r="A121">
+      <c r="A121" t="s">
         <v>358</v>
       </c>
     </row>
     <row spans="1:1" r="122">
-      <c t="s" r="A122">
+      <c r="A122" t="s">
         <v>348</v>
       </c>
     </row>
     <row spans="1:1" r="123">
-      <c t="s" r="A123">
+      <c r="A123" t="s">
         <v>349</v>
       </c>
     </row>
     <row spans="1:1" r="124">
-      <c t="s" r="A124">
+      <c r="A124" t="s">
         <v>360</v>
       </c>
     </row>
     <row spans="1:1" r="125">
-      <c t="s" r="A125">
+      <c r="A125" t="s">
         <v>361</v>
       </c>
     </row>
     <row spans="1:1" r="126">
-      <c t="s" r="A126">
+      <c r="A126" t="s">
         <v>350</v>
       </c>
     </row>
     <row spans="1:1" r="127">
-      <c t="s" r="A127">
+      <c r="A127" t="s">
         <v>351</v>
       </c>
     </row>
     <row spans="1:1" r="128">
-      <c t="s" r="A128">
+      <c r="A128" t="s">
         <v>363</v>
       </c>
     </row>
     <row spans="1:1" r="129">
-      <c t="s" r="A129">
+      <c r="A129" t="s">
         <v>364</v>
       </c>
     </row>
     <row spans="1:1" r="130">
-      <c t="s" r="A130">
+      <c r="A130" t="s">
         <v>362</v>
       </c>
     </row>
     <row spans="1:1" r="131">
-      <c t="s" r="A131">
+      <c r="A131" t="s">
         <v>365</v>
       </c>
     </row>
     <row spans="1:1" r="132">
-      <c t="s" r="A132">
+      <c r="A132" t="s">
         <v>366</v>
       </c>
     </row>
     <row spans="1:1" r="133">
-      <c t="s" r="A133">
+      <c r="A133" t="s">
         <v>367</v>
       </c>
     </row>
     <row spans="1:1" r="134">
-      <c t="s" r="A134">
+      <c r="A134" t="s">
         <v>368</v>
       </c>
     </row>
     <row spans="1:1" r="135">
-      <c t="s" r="A135">
+      <c r="A135" t="s">
         <v>372</v>
       </c>
     </row>
     <row spans="1:1" r="136">
-      <c t="s" r="A136">
+      <c r="A136" t="s">
         <v>375</v>
       </c>
     </row>
     <row spans="1:1" r="137">
-      <c t="s" r="A137">
+      <c r="A137" t="s">
         <v>377</v>
       </c>
     </row>
     <row spans="1:1" r="138">
-      <c t="s" r="A138">
+      <c r="A138" t="s">
         <v>394</v>
       </c>
     </row>
     <row spans="1:1" r="139">
-      <c t="s" r="A139">
+      <c r="A139" t="s">
         <v>396</v>
       </c>
     </row>
     <row spans="1:1" r="140">
-      <c t="s" r="A140">
+      <c r="A140" t="s">
         <v>397</v>
       </c>
     </row>
     <row spans="1:1" r="141">
-      <c t="s" r="A141">
+      <c r="A141" t="s">
         <v>399</v>
       </c>
     </row>
     <row spans="1:1" r="142">
-      <c t="s" r="A142">
+      <c r="A142" t="s">
         <v>409</v>
       </c>
     </row>
     <row spans="1:1" r="143">
-      <c t="s" r="A143">
+      <c r="A143" t="s">
         <v>413</v>
       </c>
     </row>
     <row spans="1:1" r="144">
-      <c t="s" r="A144">
+      <c r="A144" t="s">
         <v>414</v>
       </c>
     </row>
     <row spans="1:1" r="145">
-      <c t="s" r="A145">
+      <c r="A145" t="s">
         <v>415</v>
       </c>
     </row>
     <row spans="1:1" r="146">
-      <c t="s" r="A146">
+      <c r="A146" t="s">
         <v>410</v>
       </c>
     </row>
     <row spans="1:1" r="147">
-      <c t="s" r="A147">
+      <c r="A147" t="s">
         <v>411</v>
       </c>
     </row>
     <row spans="1:1" r="148">
-      <c t="s" r="A148">
+      <c r="A148" t="s">
         <v>416</v>
       </c>
     </row>
     <row spans="1:1" r="149">
-      <c t="s" r="A149">
+      <c r="A149" t="s">
         <v>412</v>
       </c>
     </row>
     <row spans="1:1" r="150">
-      <c t="s" r="A150">
+      <c r="A150" t="s">
         <v>417</v>
       </c>
     </row>
     <row spans="1:1" r="151">
-      <c t="s" r="A151">
+      <c r="A151" t="s">
         <v>418</v>
       </c>
     </row>
     <row spans="1:1" r="152">
-      <c t="s" r="A152">
+      <c r="A152" t="s">
         <v>419</v>
       </c>
     </row>
     <row spans="1:1" r="153">
-      <c t="s" r="A153">
+      <c r="A153" t="s">
         <v>420</v>
       </c>
     </row>
     <row spans="1:1" r="154">
-      <c t="s" r="A154">
+      <c r="A154" t="s">
         <v>421</v>
       </c>
     </row>
     <row spans="1:1" r="155">
-      <c t="s" r="A155">
+      <c r="A155" t="s">
         <v>422</v>
       </c>
     </row>
     <row spans="1:1" r="156">
-      <c t="s" r="A156">
+      <c r="A156" t="s">
         <v>423</v>
       </c>
     </row>
     <row spans="1:1" r="157">
-      <c t="s" r="A157">
+      <c r="A157" t="s">
         <v>445</v>
       </c>
     </row>
     <row spans="1:1" r="158">
-      <c t="s" r="A158">
+      <c r="A158" t="s">
         <v>444</v>
       </c>
     </row>
     <row spans="1:1" r="159">
-      <c t="s" r="A159">
+      <c r="A159" t="s">
         <v>447</v>
       </c>
     </row>
     <row spans="1:1" r="160">
-      <c t="s" r="A160">
+      <c r="A160" t="s">
         <v>446</v>
       </c>
     </row>
     <row spans="1:1" r="161">
-      <c t="s" r="A161">
+      <c r="A161" t="s">
         <v>448</v>
       </c>
     </row>
     <row spans="1:1" r="162">
-      <c t="s" r="A162">
+      <c r="A162" t="s">
         <v>449</v>
       </c>
     </row>
     <row spans="1:1" r="163">
-      <c t="s" r="A163">
+      <c r="A163" t="s">
         <v>454</v>
       </c>
     </row>
     <row spans="1:1" r="164">
-      <c t="s" r="A164">
+      <c r="A164" t="s">
         <v>455</v>
       </c>
     </row>
     <row spans="1:1" r="165">
-      <c t="s" r="A165">
+      <c r="A165" t="s">
         <v>459</v>
       </c>
     </row>
     <row spans="1:1" r="166">
-      <c t="s" r="A166">
+      <c r="A166" t="s">
         <v>460</v>
       </c>
     </row>
     <row spans="1:1" r="167">
-      <c t="s" r="A167">
+      <c r="A167" t="s">
         <v>457</v>
       </c>
     </row>
     <row spans="1:1" r="168">
-      <c t="s" r="A168">
+      <c r="A168" t="s">
         <v>458</v>
       </c>
     </row>
     <row spans="1:1" r="169">
-      <c t="s" r="A169">
+      <c r="A169" t="s">
         <v>461</v>
       </c>
     </row>
     <row spans="1:1" r="170">
-      <c t="s" r="A170">
+      <c r="A170" t="s">
         <v>464</v>
       </c>
     </row>
     <row spans="1:1" r="171">
-      <c t="s" r="A171">
+      <c r="A171" t="s">
         <v>481</v>
       </c>
     </row>
     <row spans="1:1" r="172">
-      <c t="s" r="A172">
+      <c r="A172" t="s">
         <v>484</v>
       </c>
     </row>
     <row spans="1:1" r="173">
-      <c t="s" r="A173">
+      <c r="A173" t="s">
         <v>489</v>
       </c>
     </row>
     <row spans="1:1" r="174">
-      <c t="s" r="A174">
+      <c r="A174" t="s">
         <v>499</v>
       </c>
     </row>
     <row spans="1:1" r="175">
-      <c t="s" r="A175">
+      <c r="A175" t="s">
         <v>501</v>
       </c>
     </row>
     <row spans="1:1" r="176">
-      <c t="s" r="A176">
+      <c r="A176" t="s">
         <v>502</v>
       </c>
     </row>
     <row spans="1:1" r="177">
-      <c t="s" r="A177">
+      <c r="A177" t="s">
         <v>503</v>
       </c>
     </row>
     <row spans="1:1" r="178">
-      <c t="s" r="A178">
+      <c r="A178" t="s">
         <v>524</v>
       </c>
     </row>
     <row spans="1:1" r="179">
-      <c t="s" r="A179">
+      <c r="A179" t="s">
         <v>527</v>
       </c>
     </row>
     <row spans="1:1" r="180">
-      <c t="s" r="A180">
+      <c r="A180" t="s">
         <v>525</v>
       </c>
     </row>
     <row spans="1:1" r="181">
-      <c t="s" r="A181">
+      <c r="A181" t="s">
         <v>528</v>
       </c>
     </row>
     <row spans="1:1" r="182">
-      <c t="s" r="A182">
+      <c r="A182" t="s">
         <v>526</v>
       </c>
     </row>
     <row spans="1:1" r="183">
-      <c t="s" r="A183">
+      <c r="A183" t="s">
         <v>537</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" left="0.75" footer="0.5" bottom="1" header="0.5" right="0.75"/>
+  <pageMargins top="1" right="0.75" footer="0.5" left="0.75" bottom="1" header="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
   <dimension ref="A1:A253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection sqref="A1" activeCell="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <sheetData>
     <row spans="1:1" r="1">
-      <c t="s" r="A1">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
     <row spans="1:1" r="2">
-      <c t="s" r="A2">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
     <row spans="1:1" r="3">
-      <c t="s" r="A3">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
     <row spans="1:1" r="4">
-      <c t="s" r="A4">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
     </row>
     <row spans="1:1" r="5">
-      <c t="s" r="A5">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
     <row spans="1:1" r="6">
-      <c t="s" r="A6">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
     <row spans="1:1" r="7">
-      <c t="s" r="A7">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
     <row spans="1:1" r="8">
-      <c t="s" r="A8">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
     <row spans="1:1" r="9">
-      <c t="s" r="A9">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
     <row spans="1:1" r="10">
-      <c t="s" r="A10">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
     <row spans="1:1" r="11">
-      <c t="s" r="A11">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
     </row>
     <row spans="1:1" r="12">
-      <c t="s" r="A12">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
     </row>
     <row spans="1:1" r="13">
-      <c t="s" r="A13">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
     </row>
     <row spans="1:1" r="14">
-      <c t="s" r="A14">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
     </row>
     <row spans="1:1" r="15">
-      <c t="s" r="A15">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
     </row>
     <row spans="1:1" r="16">
-      <c t="s" r="A16">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
     </row>
     <row spans="1:1" r="17">
-      <c t="s" r="A17">
+      <c r="A17" t="s">
         <v>81</v>
       </c>
     </row>
     <row spans="1:1" r="18">
-      <c t="s" r="A18">
+      <c r="A18" t="s">
         <v>82</v>
       </c>
     </row>
     <row spans="1:1" r="19">
-      <c t="s" r="A19">
+      <c r="A19" t="s">
         <v>83</v>
       </c>
     </row>
     <row spans="1:1" r="20">
-      <c t="s" r="A20">
+      <c r="A20" t="s">
         <v>84</v>
       </c>
     </row>
     <row spans="1:1" r="21">
-      <c t="s" r="A21">
+      <c r="A21" t="s">
         <v>85</v>
       </c>
     </row>
     <row spans="1:1" r="22">
-      <c t="s" r="A22">
+      <c r="A22" t="s">
         <v>86</v>
       </c>
     </row>
     <row spans="1:1" r="23">
-      <c t="s" r="A23">
+      <c r="A23" t="s">
         <v>87</v>
       </c>
     </row>
     <row spans="1:1" r="24">
-      <c t="s" r="A24">
+      <c r="A24" t="s">
         <v>88</v>
       </c>
     </row>
     <row spans="1:1" r="25">
-      <c t="s" r="A25">
+      <c r="A25" t="s">
         <v>89</v>
       </c>
     </row>
     <row spans="1:1" r="26">
-      <c t="s" r="A26">
+      <c r="A26" t="s">
         <v>90</v>
       </c>
     </row>
     <row spans="1:1" r="27">
-      <c t="s" r="A27">
+      <c r="A27" t="s">
         <v>91</v>
       </c>
     </row>
     <row spans="1:1" r="28">
-      <c t="s" r="A28">
+      <c r="A28" t="s">
         <v>92</v>
       </c>
     </row>
     <row spans="1:1" r="29">
-      <c t="s" r="A29">
+      <c r="A29" t="s">
         <v>93</v>
       </c>
     </row>
     <row spans="1:1" r="30">
-      <c t="s" r="A30">
+      <c r="A30" t="s">
         <v>94</v>
       </c>
     </row>
     <row spans="1:1" r="31">
-      <c t="s" r="A31">
+      <c r="A31" t="s">
         <v>95</v>
       </c>
     </row>
     <row spans="1:1" r="32">
-      <c t="s" r="A32">
+      <c r="A32" t="s">
         <v>96</v>
       </c>
     </row>
     <row spans="1:1" r="33">
-      <c t="s" r="A33">
+      <c r="A33" t="s">
         <v>97</v>
       </c>
     </row>
     <row spans="1:1" r="34">
-      <c t="s" r="A34">
+      <c r="A34" t="s">
         <v>98</v>
       </c>
     </row>
     <row spans="1:1" r="35">
-      <c t="s" r="A35">
+      <c r="A35" t="s">
         <v>99</v>
       </c>
     </row>
     <row spans="1:1" r="36">
-      <c t="s" r="A36">
+      <c r="A36" t="s">
         <v>106</v>
       </c>
     </row>
     <row spans="1:1" r="37">
-      <c t="s" r="A37">
+      <c r="A37" t="s">
         <v>107</v>
       </c>
     </row>
     <row spans="1:1" r="38">
-      <c t="s" r="A38">
+      <c r="A38" t="s">
         <v>108</v>
       </c>
     </row>
     <row spans="1:1" r="39">
-      <c t="s" r="A39">
+      <c r="A39" t="s">
         <v>109</v>
       </c>
     </row>
     <row spans="1:1" r="40">
-      <c t="s" r="A40">
+      <c r="A40" t="s">
         <v>110</v>
       </c>
     </row>
     <row spans="1:1" r="41">
-      <c t="s" r="A41">
+      <c r="A41" t="s">
         <v>111</v>
       </c>
     </row>
     <row spans="1:1" r="42">
-      <c t="s" r="A42">
+      <c r="A42" t="s">
         <v>115</v>
       </c>
     </row>
     <row spans="1:1" r="43">
-      <c t="s" r="A43">
+      <c r="A43" t="s">
         <v>116</v>
       </c>
     </row>
     <row spans="1:1" r="44">
-      <c t="s" r="A44">
+      <c r="A44" t="s">
         <v>117</v>
       </c>
     </row>
     <row spans="1:1" r="45">
-      <c t="s" r="A45">
+      <c r="A45" t="s">
         <v>118</v>
       </c>
     </row>
     <row spans="1:1" r="46">
-      <c t="s" r="A46">
+      <c r="A46" t="s">
         <v>119</v>
       </c>
     </row>
     <row spans="1:1" r="47">
-      <c t="s" r="A47">
+      <c r="A47" t="s">
         <v>121</v>
       </c>
     </row>
     <row spans="1:1" r="48">
-      <c t="s" r="A48">
+      <c r="A48" t="s">
         <v>122</v>
       </c>
     </row>
     <row spans="1:1" r="49">
-      <c t="s" r="A49">
+      <c r="A49" t="s">
         <v>123</v>
       </c>
     </row>
     <row spans="1:1" r="50">
-      <c t="s" r="A50">
+      <c r="A50" t="s">
         <v>124</v>
       </c>
     </row>
     <row spans="1:1" r="51">
-      <c t="s" r="A51">
+      <c r="A51" t="s">
         <v>125</v>
       </c>
     </row>
     <row spans="1:1" r="52">
-      <c t="s" r="A52">
+      <c r="A52" t="s">
         <v>126</v>
       </c>
     </row>
     <row spans="1:1" r="53">
-      <c t="s" r="A53">
+      <c r="A53" t="s">
         <v>127</v>
       </c>
     </row>
     <row spans="1:1" r="54">
-      <c t="s" r="A54">
+      <c r="A54" t="s">
         <v>162</v>
       </c>
     </row>
     <row spans="1:1" r="55">
-      <c t="s" r="A55">
+      <c r="A55" t="s">
         <v>163</v>
       </c>
     </row>
     <row spans="1:1" r="56">
-      <c t="s" r="A56">
+      <c r="A56" t="s">
         <v>164</v>
       </c>
     </row>
     <row spans="1:1" r="57">
-      <c t="s" r="A57">
+      <c r="A57" t="s">
         <v>165</v>
       </c>
     </row>
     <row spans="1:1" r="58">
-      <c t="s" r="A58">
+      <c r="A58" t="s">
         <v>166</v>
       </c>
     </row>
     <row spans="1:1" r="59">
-      <c t="s" r="A59">
+      <c r="A59" t="s">
         <v>167</v>
       </c>
     </row>
     <row spans="1:1" r="60">
-      <c t="s" r="A60">
+      <c r="A60" t="s">
         <v>173</v>
       </c>
     </row>
     <row spans="1:1" r="61">
-      <c t="s" r="A61">
+      <c r="A61" t="s">
         <v>175</v>
       </c>
     </row>
     <row spans="1:1" r="62">
-      <c t="s" r="A62">
+      <c r="A62" t="s">
         <v>176</v>
       </c>
     </row>
     <row spans="1:1" r="63">
-      <c t="s" r="A63">
+      <c r="A63" t="s">
         <v>177</v>
       </c>
     </row>
     <row spans="1:1" r="64">
-      <c t="s" r="A64">
+      <c r="A64" t="s">
         <v>178</v>
       </c>
     </row>
     <row spans="1:1" r="65">
-      <c t="s" r="A65">
+      <c r="A65" t="s">
         <v>179</v>
       </c>
     </row>
     <row spans="1:1" r="66">
-      <c t="s" r="A66">
+      <c r="A66" t="s">
         <v>180</v>
       </c>
     </row>
     <row spans="1:1" r="67">
-      <c t="s" r="A67">
+      <c r="A67" t="s">
         <v>192</v>
       </c>
     </row>
     <row spans="1:1" r="68">
-      <c t="s" r="A68">
+      <c r="A68" t="s">
         <v>193</v>
       </c>
     </row>
     <row spans="1:1" r="69">
-      <c t="s" r="A69">
+      <c r="A69" t="s">
         <v>194</v>
       </c>
     </row>
     <row spans="1:1" r="70">
-      <c t="s" r="A70">
+      <c r="A70" t="s">
         <v>195</v>
       </c>
     </row>
     <row spans="1:1" r="71">
-      <c t="s" r="A71">
+      <c r="A71" t="s">
         <v>196</v>
       </c>
     </row>
     <row spans="1:1" r="72">
-      <c t="s" r="A72">
+      <c r="A72" t="s">
         <v>197</v>
       </c>
     </row>
     <row spans="1:1" r="73">
-      <c t="s" r="A73">
+      <c r="A73" t="s">
         <v>198</v>
       </c>
     </row>
     <row spans="1:1" r="74">
-      <c t="s" r="A74">
+      <c r="A74" t="s">
         <v>204</v>
       </c>
     </row>
     <row spans="1:1" r="75">
-      <c t="s" r="A75">
+      <c r="A75" t="s">
         <v>205</v>
       </c>
     </row>
     <row spans="1:1" r="76">
-      <c t="s" r="A76">
+      <c r="A76" t="s">
         <v>206</v>
       </c>
     </row>
     <row spans="1:1" r="77">
-      <c t="s" r="A77">
+      <c r="A77" t="s">
         <v>207</v>
       </c>
     </row>
     <row spans="1:1" r="78">
-      <c t="s" r="A78">
+      <c r="A78" t="s">
         <v>208</v>
       </c>
     </row>
     <row spans="1:1" r="79">
-      <c t="s" r="A79">
+      <c r="A79" t="s">
         <v>209</v>
       </c>
     </row>
     <row spans="1:1" r="80">
-      <c t="s" r="A80">
+      <c r="A80" t="s">
         <v>210</v>
       </c>
     </row>
     <row spans="1:1" r="81">
-      <c t="s" r="A81">
+      <c r="A81" t="s">
         <v>212</v>
       </c>
     </row>
     <row spans="1:1" r="82">
-      <c t="s" r="A82">
+      <c r="A82" t="s">
         <v>213</v>
       </c>
     </row>
     <row spans="1:1" r="83">
-      <c t="s" r="A83">
+      <c r="A83" t="s">
         <v>214</v>
       </c>
     </row>
     <row spans="1:1" r="84">
-      <c t="s" r="A84">
+      <c r="A84" t="s">
         <v>216</v>
       </c>
     </row>
     <row spans="1:1" r="85">
-      <c t="s" r="A85">
+      <c r="A85" t="s">
         <v>217</v>
       </c>
     </row>
     <row spans="1:1" r="86">
-      <c t="s" r="A86">
+      <c r="A86" t="s">
         <v>218</v>
       </c>
     </row>
     <row spans="1:1" r="87">
-      <c t="s" r="A87">
+      <c r="A87" t="s">
         <v>219</v>
       </c>
     </row>
     <row spans="1:1" r="88">
-      <c t="s" r="A88">
+      <c r="A88" t="s">
         <v>220</v>
       </c>
     </row>
     <row spans="1:1" r="89">
-      <c t="s" r="A89">
+      <c r="A89" t="s">
         <v>221</v>
       </c>
     </row>
     <row spans="1:1" r="90">
-      <c t="s" r="A90">
+      <c r="A90" t="s">
         <v>222</v>
       </c>
     </row>
     <row spans="1:1" r="91">
-      <c t="s" r="A91">
+      <c r="A91" t="s">
         <v>223</v>
       </c>
     </row>
     <row spans="1:1" r="92">
-      <c t="s" r="A92">
+      <c r="A92" t="s">
         <v>238</v>
       </c>
     </row>
     <row spans="1:1" r="93">
-      <c t="s" r="A93">
+      <c r="A93" t="s">
         <v>239</v>
       </c>
     </row>
     <row spans="1:1" r="94">
-      <c t="s" r="A94">
+      <c r="A94" t="s">
         <v>240</v>
       </c>
     </row>
     <row spans="1:1" r="95">
-      <c t="s" r="A95">
+      <c r="A95" t="s">
         <v>241</v>
       </c>
     </row>
     <row spans="1:1" r="96">
-      <c t="s" r="A96">
+      <c r="A96" t="s">
         <v>242</v>
       </c>
     </row>
     <row spans="1:1" r="97">
-      <c t="s" r="A97">
+      <c r="A97" t="s">
         <v>243</v>
       </c>
     </row>
     <row spans="1:1" r="98">
-      <c t="s" r="A98">
+      <c r="A98" t="s">
         <v>246</v>
       </c>
     </row>
     <row spans="1:1" r="99">
-      <c t="s" r="A99">
+      <c r="A99" t="s">
         <v>247</v>
       </c>
     </row>
     <row spans="1:1" r="100">
-      <c t="s" r="A100">
+      <c r="A100" t="s">
         <v>248</v>
       </c>
     </row>
     <row spans="1:1" r="101">
-      <c t="s" r="A101">
+      <c r="A101" t="s">
         <v>249</v>
       </c>
     </row>
     <row spans="1:1" r="102">
-      <c t="s" r="A102">
+      <c r="A102" t="s">
         <v>251</v>
       </c>
     </row>
     <row spans="1:1" r="103">
-      <c t="s" r="A103">
+      <c r="A103" t="s">
         <v>252</v>
       </c>
     </row>
     <row spans="1:1" r="104">
-      <c t="s" r="A104">
+      <c r="A104" t="s">
         <v>253</v>
       </c>
     </row>
     <row spans="1:1" r="105">
-      <c t="s" r="A105">
+      <c r="A105" t="s">
         <v>254</v>
       </c>
     </row>
     <row spans="1:1" r="106">
-      <c t="s" r="A106">
+      <c r="A106" t="s">
         <v>255</v>
       </c>
     </row>
     <row spans="1:1" r="107">
-      <c t="s" r="A107">
+      <c r="A107" t="s">
         <v>278</v>
       </c>
     </row>
     <row spans="1:1" r="108">
-      <c t="s" r="A108">
+      <c r="A108" t="s">
         <v>279</v>
       </c>
     </row>
     <row spans="1:1" r="109">
-      <c t="s" r="A109">
+      <c r="A109" t="s">
         <v>280</v>
       </c>
     </row>
     <row spans="1:1" r="110">
-      <c t="s" r="A110">
+      <c r="A110" t="s">
         <v>281</v>
       </c>
     </row>
     <row spans="1:1" r="111">
-      <c t="s" r="A111">
+      <c r="A111" t="s">
         <v>282</v>
       </c>
     </row>
     <row spans="1:1" r="112">
-      <c t="s" r="A112">
+      <c r="A112" t="s">
         <v>283</v>
       </c>
     </row>
     <row spans="1:1" r="113">
-      <c t="s" r="A113">
+      <c r="A113" t="s">
         <v>284</v>
       </c>
     </row>
     <row spans="1:1" r="114">
-      <c t="s" r="A114">
+      <c r="A114" t="s">
         <v>285</v>
       </c>
     </row>
     <row spans="1:1" r="115">
-      <c t="s" r="A115">
+      <c r="A115" t="s">
         <v>286</v>
       </c>
     </row>
     <row spans="1:1" r="116">
-      <c t="s" r="A116">
+      <c r="A116" t="s">
         <v>287</v>
       </c>
     </row>
     <row spans="1:1" r="117">
-      <c t="s" r="A117">
+      <c r="A117" t="s">
         <v>288</v>
       </c>
     </row>
     <row spans="1:1" r="118">
-      <c t="s" r="A118">
+      <c r="A118" t="s">
         <v>289</v>
       </c>
     </row>
     <row spans="1:1" r="119">
-      <c t="s" r="A119">
+      <c r="A119" t="s">
         <v>290</v>
       </c>
     </row>
     <row spans="1:1" r="120">
-      <c t="s" r="A120">
+      <c r="A120" t="s">
         <v>291</v>
       </c>
     </row>
     <row spans="1:1" r="121">
-      <c t="s" r="A121">
+      <c r="A121" t="s">
         <v>296</v>
       </c>
     </row>
     <row spans="1:1" r="122">
-      <c t="s" r="A122">
+      <c r="A122" t="s">
         <v>297</v>
       </c>
     </row>
     <row spans="1:1" r="123">
-      <c t="s" r="A123">
+      <c r="A123" t="s">
         <v>298</v>
       </c>
     </row>
     <row spans="1:1" r="124">
-      <c t="s" r="A124">
+      <c r="A124" t="s">
         <v>299</v>
       </c>
     </row>
     <row spans="1:1" r="125">
-      <c t="s" r="A125">
+      <c r="A125" t="s">
         <v>300</v>
       </c>
     </row>
     <row spans="1:1" r="126">
-      <c t="s" r="A126">
+      <c r="A126" t="s">
         <v>301</v>
       </c>
     </row>
     <row spans="1:1" r="127">
-      <c t="s" r="A127">
+      <c r="A127" t="s">
         <v>302</v>
       </c>
     </row>
     <row spans="1:1" r="128">
-      <c t="s" r="A128">
+      <c r="A128" t="s">
         <v>303</v>
       </c>
     </row>
     <row spans="1:1" r="129">
-      <c t="s" r="A129">
+      <c r="A129" t="s">
         <v>304</v>
       </c>
     </row>
     <row spans="1:1" r="130">
-      <c t="s" r="A130">
+      <c r="A130" t="s">
         <v>305</v>
       </c>
     </row>
     <row spans="1:1" r="131">
-      <c t="s" r="A131">
+      <c r="A131" t="s">
         <v>306</v>
       </c>
     </row>
     <row spans="1:1" r="132">
-      <c t="s" r="A132">
+      <c r="A132" t="s">
         <v>310</v>
       </c>
     </row>
     <row spans="1:1" r="133">
-      <c t="s" r="A133">
+      <c r="A133" t="s">
         <v>311</v>
       </c>
     </row>
     <row spans="1:1" r="134">
-      <c t="s" r="A134">
+      <c r="A134" t="s">
         <v>312</v>
       </c>
     </row>
     <row spans="1:1" r="135">
-      <c t="s" r="A135">
+      <c r="A135" t="s">
         <v>313</v>
       </c>
     </row>
     <row spans="1:1" r="136">
-      <c t="s" r="A136">
+      <c r="A136" t="s">
         <v>314</v>
       </c>
     </row>
     <row spans="1:1" r="137">
-      <c t="s" r="A137">
+      <c r="A137" t="s">
         <v>316</v>
       </c>
     </row>
     <row spans="1:1" r="138">
-      <c t="s" r="A138">
+      <c r="A138" t="s">
         <v>317</v>
       </c>
     </row>
     <row spans="1:1" r="139">
-      <c t="s" r="A139">
+      <c r="A139" t="s">
         <v>318</v>
       </c>
     </row>
     <row spans="1:1" r="140">
-      <c t="s" r="A140">
+      <c r="A140" t="s">
         <v>319</v>
       </c>
     </row>
     <row spans="1:1" r="141">
-      <c t="s" r="A141">
+      <c r="A141" t="s">
         <v>320</v>
       </c>
     </row>
     <row spans="1:1" r="142">
-      <c t="s" r="A142">
+      <c r="A142" t="s">
         <v>321</v>
       </c>
     </row>
     <row spans="1:1" r="143">
-      <c t="s" r="A143">
+      <c r="A143" t="s">
         <v>322</v>
       </c>
     </row>
     <row spans="1:1" r="144">
-      <c t="s" r="A144">
+      <c r="A144" t="s">
         <v>323</v>
       </c>
     </row>
     <row spans="1:1" r="145">
-      <c t="s" r="A145">
+      <c r="A145" t="s">
         <v>324</v>
       </c>
     </row>
     <row spans="1:1" r="146">
-      <c t="s" r="A146">
+      <c r="A146" t="s">
         <v>325</v>
       </c>
     </row>
     <row spans="1:1" r="147">
-      <c t="s" r="A147">
+      <c r="A147" t="s">
         <v>326</v>
       </c>
     </row>
     <row spans="1:1" r="148">
-      <c t="s" r="A148">
+      <c r="A148" t="s">
         <v>327</v>
       </c>
     </row>
     <row spans="1:1" r="149">
-      <c t="s" r="A149">
+      <c r="A149" t="s">
         <v>328</v>
       </c>
     </row>
     <row spans="1:1" r="150">
-      <c t="s" r="A150">
+      <c r="A150" t="s">
         <v>329</v>
       </c>
     </row>
     <row spans="1:1" r="151">
-      <c t="s" r="A151">
+      <c r="A151" t="s">
         <v>330</v>
       </c>
     </row>
     <row spans="1:1" r="152">
-      <c t="s" r="A152">
+      <c r="A152" t="s">
         <v>331</v>
       </c>
     </row>
     <row spans="1:1" r="153">
-      <c t="s" r="A153">
+      <c r="A153" t="s">
         <v>333</v>
       </c>
     </row>
     <row spans="1:1" r="154">
-      <c t="s" r="A154">
+      <c r="A154" t="s">
         <v>335</v>
       </c>
     </row>
     <row spans="1:1" r="155">
-      <c t="s" r="A155">
+      <c r="A155" t="s">
         <v>336</v>
       </c>
     </row>
     <row spans="1:1" r="156">
-      <c t="s" r="A156">
+      <c r="A156" t="s">
         <v>338</v>
       </c>
     </row>
     <row spans="1:1" r="157">
-      <c t="s" r="A157">
+      <c r="A157" t="s">
         <v>339</v>
       </c>
     </row>
     <row spans="1:1" r="158">
-      <c t="s" r="A158">
+      <c r="A158" t="s">
         <v>340</v>
       </c>
     </row>
     <row spans="1:1" r="159">
-      <c t="s" r="A159">
+      <c r="A159" t="s">
         <v>341</v>
       </c>
     </row>
     <row spans="1:1" r="160">
-      <c t="s" r="A160">
+      <c r="A160" t="s">
         <v>342</v>
       </c>
     </row>
     <row spans="1:1" r="161">
-      <c t="s" r="A161">
+      <c r="A161" t="s">
         <v>343</v>
       </c>
     </row>
     <row spans="1:1" r="162">
-      <c t="s" r="A162">
+      <c r="A162" t="s">
         <v>344</v>
       </c>
     </row>
     <row spans="1:1" r="163">
-      <c t="s" r="A163">
+      <c r="A163" t="s">
         <v>345</v>
       </c>
     </row>
     <row spans="1:1" r="164">
-      <c t="s" r="A164">
+      <c r="A164" t="s">
         <v>346</v>
       </c>
     </row>
     <row spans="1:1" r="165">
-      <c t="s" r="A165">
+      <c r="A165" t="s">
         <v>347</v>
       </c>
     </row>
     <row spans="1:1" r="166">
-      <c t="s" r="A166">
+      <c r="A166" t="s">
         <v>373</v>
       </c>
     </row>
     <row spans="1:1" r="167">
-      <c t="s" r="A167">
+      <c r="A167" t="s">
         <v>380</v>
       </c>
     </row>
     <row spans="1:1" r="168">
-      <c t="s" r="A168">
+      <c r="A168" t="s">
         <v>382</v>
       </c>
     </row>
     <row spans="1:1" r="169">
-      <c t="s" r="A169">
+      <c r="A169" t="s">
         <v>383</v>
       </c>
     </row>
     <row spans="1:1" r="170">
-      <c t="s" r="A170">
+      <c r="A170" t="s">
         <v>384</v>
       </c>
     </row>
     <row spans="1:1" r="171">
-      <c t="s" r="A171">
+      <c r="A171" t="s">
         <v>385</v>
       </c>
     </row>
     <row spans="1:1" r="172">
-      <c t="s" r="A172">
+      <c r="A172" t="s">
         <v>386</v>
       </c>
     </row>
     <row spans="1:1" r="173">
-      <c t="s" r="A173">
+      <c r="A173" t="s">
         <v>387</v>
       </c>
     </row>
     <row spans="1:1" r="174">
-      <c t="s" r="A174">
+      <c r="A174" t="s">
         <v>388</v>
       </c>
     </row>
     <row spans="1:1" r="175">
-      <c t="s" r="A175">
+      <c r="A175" t="s">
         <v>389</v>
       </c>
     </row>
     <row spans="1:1" r="176">
-      <c t="s" r="A176">
+      <c r="A176" t="s">
         <v>390</v>
       </c>
     </row>
     <row spans="1:1" r="177">
-      <c t="s" r="A177">
+      <c r="A177" t="s">
         <v>391</v>
       </c>
     </row>
     <row spans="1:1" r="178">
-      <c t="s" r="A178">
+      <c r="A178" t="s">
         <v>392</v>
       </c>
     </row>
     <row spans="1:1" r="179">
-      <c t="s" r="A179">
+      <c r="A179" t="s">
         <v>393</v>
       </c>
     </row>
     <row spans="1:1" r="180">
-      <c t="s" r="A180">
+      <c r="A180" t="s">
         <v>403</v>
       </c>
     </row>
     <row spans="1:1" r="181">
-      <c t="s" r="A181">
+      <c r="A181" t="s">
         <v>404</v>
       </c>
     </row>
     <row spans="1:1" r="182">
-      <c t="s" r="A182">
+      <c r="A182" t="s">
         <v>405</v>
       </c>
     </row>
     <row spans="1:1" r="183">
-      <c t="s" r="A183">
+      <c r="A183" t="s">
         <v>406</v>
       </c>
     </row>
     <row spans="1:1" r="184">
-      <c t="s" r="A184">
+      <c r="A184" t="s">
         <v>407</v>
       </c>
     </row>
     <row spans="1:1" r="185">
-      <c t="s" r="A185">
+      <c r="A185" t="s">
         <v>424</v>
       </c>
     </row>
     <row spans="1:1" r="186">
-      <c t="s" r="A186">
+      <c r="A186" t="s">
         <v>443</v>
       </c>
     </row>
     <row spans="1:1" r="187">
-      <c t="s" r="A187">
+      <c r="A187" t="s">
         <v>425</v>
       </c>
     </row>
     <row spans="1:1" r="188">
-      <c t="s" r="A188">
+      <c r="A188" t="s">
         <v>426</v>
       </c>
     </row>
     <row spans="1:1" r="189">
-      <c t="s" r="A189">
+      <c r="A189" t="s">
         <v>427</v>
       </c>
     </row>
     <row spans="1:1" r="190">
-      <c t="s" r="A190">
+      <c r="A190" t="s">
         <v>428</v>
       </c>
     </row>
     <row spans="1:1" r="191">
-      <c t="s" r="A191">
+      <c r="A191" t="s">
         <v>429</v>
       </c>
     </row>
     <row spans="1:1" r="192">
-      <c t="s" r="A192">
+      <c r="A192" t="s">
         <v>430</v>
       </c>
     </row>
     <row spans="1:1" r="193">
-      <c t="s" r="A193">
+      <c r="A193" t="s">
         <v>431</v>
       </c>
     </row>
     <row spans="1:1" r="194">
-      <c t="s" r="A194">
+      <c r="A194" t="s">
         <v>432</v>
       </c>
     </row>
     <row spans="1:1" r="195">
-      <c t="s" r="A195">
+      <c r="A195" t="s">
         <v>433</v>
       </c>
     </row>
     <row spans="1:1" r="196">
-      <c t="s" r="A196">
+      <c r="A196" t="s">
         <v>434</v>
       </c>
     </row>
     <row spans="1:1" r="197">
-      <c t="s" r="A197">
+      <c r="A197" t="s">
         <v>435</v>
       </c>
     </row>
     <row spans="1:1" r="198">
-      <c t="s" r="A198">
+      <c r="A198" t="s">
         <v>436</v>
       </c>
     </row>
     <row spans="1:1" r="199">
-      <c t="s" r="A199">
+      <c r="A199" t="s">
         <v>437</v>
       </c>
     </row>
     <row spans="1:1" r="200">
-      <c t="s" r="A200">
+      <c r="A200" t="s">
         <v>438</v>
       </c>
     </row>
     <row spans="1:1" r="201">
-      <c t="s" r="A201">
+      <c r="A201" t="s">
         <v>439</v>
       </c>
     </row>
     <row spans="1:1" r="202">
-      <c t="s" r="A202">
+      <c r="A202" t="s">
         <v>440</v>
       </c>
     </row>
     <row spans="1:1" r="203">
-      <c t="s" r="A203">
+      <c r="A203" t="s">
         <v>441</v>
       </c>
     </row>
     <row spans="1:1" r="204">
-      <c t="s" r="A204">
+      <c r="A204" t="s">
         <v>442</v>
       </c>
     </row>
     <row spans="1:1" r="205">
-      <c t="s" r="A205">
+      <c r="A205" t="s">
         <v>465</v>
       </c>
     </row>
     <row spans="1:1" r="206">
-      <c t="s" r="A206">
+      <c r="A206" t="s">
         <v>466</v>
       </c>
     </row>
     <row spans="1:1" r="207">
-      <c t="s" r="A207">
+      <c r="A207" t="s">
         <v>467</v>
       </c>
     </row>
     <row spans="1:1" r="208">
-      <c t="s" r="A208">
+      <c r="A208" t="s">
         <v>468</v>
       </c>
     </row>
     <row spans="1:1" r="209">
-      <c t="s" r="A209">
+      <c r="A209" t="s">
         <v>469</v>
       </c>
     </row>
     <row spans="1:1" r="210">
-      <c t="s" r="A210">
+      <c r="A210" t="s">
         <v>470</v>
       </c>
     </row>
     <row spans="1:1" r="211">
-      <c t="s" r="A211">
+      <c r="A211" t="s">
         <v>471</v>
       </c>
     </row>
     <row spans="1:1" r="212">
-      <c t="s" r="A212">
+      <c r="A212" t="s">
         <v>472</v>
       </c>
     </row>
     <row spans="1:1" r="213">
-      <c t="s" r="A213">
+      <c r="A213" t="s">
         <v>473</v>
       </c>
     </row>
     <row spans="1:1" r="214">
-      <c t="s" r="A214">
+      <c r="A214" t="s">
         <v>474</v>
       </c>
     </row>
     <row spans="1:1" r="215">
-      <c t="s" r="A215">
+      <c r="A215" t="s">
         <v>475</v>
       </c>
     </row>
     <row spans="1:1" r="216">
-      <c t="s" r="A216">
+      <c r="A216" t="s">
         <v>476</v>
       </c>
     </row>
     <row spans="1:1" r="217">
-      <c t="s" r="A217">
+      <c r="A217" t="s">
         <v>477</v>
       </c>
     </row>
     <row spans="1:1" r="218">
-      <c t="s" r="A218">
+      <c r="A218" t="s">
         <v>478</v>
       </c>
     </row>
     <row spans="1:1" r="219">
-      <c t="s" r="A219">
+      <c r="A219" t="s">
         <v>479</v>
       </c>
     </row>
     <row spans="1:1" r="220">
-      <c t="s" r="A220">
+      <c r="A220" t="s">
         <v>480</v>
       </c>
     </row>
     <row spans="1:1" r="221">
-      <c t="s" r="A221">
+      <c r="A221" t="s">
         <v>491</v>
       </c>
     </row>
     <row spans="1:1" r="222">
-      <c t="s" r="A222">
+      <c r="A222" t="s">
         <v>492</v>
       </c>
     </row>
     <row spans="1:1" r="223">
-      <c t="s" r="A223">
+      <c r="A223" t="s">
         <v>493</v>
       </c>
     </row>
     <row spans="1:1" r="224">
-      <c t="s" r="A224">
+      <c r="A224" t="s">
         <v>494</v>
       </c>
     </row>
     <row spans="1:1" r="225">
-      <c t="s" r="A225">
+      <c r="A225" t="s">
         <v>496</v>
       </c>
     </row>
     <row spans="1:1" r="226">
-      <c t="s" r="A226">
+      <c r="A226" t="s">
         <v>497</v>
       </c>
     </row>
     <row spans="1:1" r="227">
-      <c t="s" r="A227">
+      <c r="A227" t="s">
         <v>498</v>
       </c>
     </row>
     <row spans="1:1" r="228">
-      <c t="s" r="A228">
+      <c r="A228" t="s">
         <v>504</v>
       </c>
     </row>
     <row spans="1:1" r="229">
-      <c t="s" r="A229">
+      <c r="A229" t="s">
         <v>505</v>
       </c>
     </row>
     <row spans="1:1" r="230">
-      <c t="s" r="A230">
+      <c r="A230" t="s">
         <v>506</v>
       </c>
     </row>
     <row spans="1:1" r="231">
-      <c t="s" r="A231">
+      <c r="A231" t="s">
         <v>507</v>
       </c>
     </row>
     <row spans="1:1" r="232">
-      <c t="s" r="A232">
+      <c r="A232" t="s">
         <v>508</v>
       </c>
     </row>
     <row spans="1:1" r="233">
-      <c t="s" r="A233">
+      <c r="A233" t="s">
         <v>509</v>
       </c>
     </row>
     <row spans="1:1" r="234">
-      <c t="s" r="A234">
+      <c r="A234" t="s">
         <v>510</v>
       </c>
     </row>
     <row spans="1:1" r="235">
-      <c t="s" r="A235">
+      <c r="A235" t="s">
         <v>512</v>
       </c>
     </row>
     <row spans="1:1" r="236">
-      <c t="s" r="A236">
+      <c r="A236" t="s">
         <v>513</v>
       </c>
     </row>
     <row spans="1:1" r="237">
-      <c t="s" r="A237">
+      <c r="A237" t="s">
         <v>529</v>
       </c>
     </row>
     <row spans="1:1" r="238">
-      <c t="s" r="A238">
+      <c r="A238" t="s">
         <v>530</v>
       </c>
     </row>
     <row spans="1:1" r="239">
-      <c t="s" r="A239">
+      <c r="A239" t="s">
         <v>531</v>
       </c>
     </row>
     <row spans="1:1" r="240">
-      <c t="s" r="A240">
+      <c r="A240" t="s">
         <v>533</v>
       </c>
     </row>
     <row spans="1:1" r="241">
-      <c t="s" r="A241">
+      <c r="A241" t="s">
         <v>534</v>
       </c>
     </row>
     <row spans="1:1" r="242">
-      <c t="s" r="A242">
+      <c r="A242" t="s">
         <v>535</v>
       </c>
     </row>
     <row spans="1:1" r="243">
-      <c t="s" r="A243">
+      <c r="A243" t="s">
         <v>536</v>
       </c>
     </row>
     <row spans="1:1" r="244">
-      <c t="s" r="A244">
+      <c r="A244" t="s">
         <v>120</v>
       </c>
     </row>
     <row spans="1:1" r="245">
-      <c t="s" r="A245">
+      <c r="A245" t="s">
         <v>174</v>
       </c>
     </row>
     <row spans="1:1" r="246">
-      <c t="s" r="A246">
+      <c r="A246" t="s">
         <v>215</v>
       </c>
     </row>
     <row spans="1:1" r="247">
-      <c t="s" r="A247">
+      <c r="A247" t="s">
         <v>250</v>
       </c>
     </row>
     <row spans="1:1" r="248">
-      <c t="s" r="A248">
+      <c r="A248" t="s">
         <v>315</v>
       </c>
     </row>
     <row spans="1:1" r="249">
-      <c t="s" r="A249">
+      <c r="A249" t="s">
         <v>337</v>
       </c>
     </row>
     <row spans="1:1" r="250">
-      <c t="s" r="A250">
+      <c r="A250" t="s">
         <v>374</v>
       </c>
     </row>
     <row spans="1:1" r="251">
-      <c t="s" r="A251">
+      <c r="A251" t="s">
         <v>17</v>
       </c>
     </row>
     <row spans="1:1" r="252">
-      <c t="s" r="A252">
+      <c r="A252" t="s">
         <v>334</v>
       </c>
     </row>
     <row spans="1:1" r="253">
-      <c t="s" r="A253">
+      <c r="A253" t="s">
         <v>181</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" left="0.75" footer="0.5" bottom="1" header="0.5" right="0.75"/>
+  <pageMargins top="1" right="0.75" footer="0.5" left="0.75" bottom="1" header="0.5"/>
 </worksheet>
 </file>